--- a/public/data-media.xlsx
+++ b/public/data-media.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -33,23 +33,14 @@
     <t>image</t>
   </si>
   <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>Kaloula_pulchra.jpg</t>
-  </si>
-  <si>
-    <t>Kaloula_pulchra2.jpg</t>
-  </si>
-  <si>
-    <t>chill.mp4</t>
+    <t>home_img.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -64,12 +55,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -96,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -107,7 +92,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,8 +309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -354,7 +338,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -364,8 +348,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -373,10 +357,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -387,7 +371,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -395,10 +379,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -409,7 +393,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -419,8 +403,8 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -428,10 +412,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -442,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -464,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -474,8 +458,8 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -483,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -497,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -505,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -519,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -529,8 +513,8 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>6</v>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -538,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -560,10 +544,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -574,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,8 +568,8 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
+      <c r="C23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -593,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -607,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -639,8 +623,8 @@
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
+      <c r="C28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,10 +654,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -684,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -694,8 +678,8 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>6</v>
+      <c r="C33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,10 +687,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,10 +709,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -739,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,8 +733,8 @@
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>6</v>
+      <c r="C38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -758,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,8 +788,8 @@
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>6</v>
+      <c r="C43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -813,10 +797,10 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -827,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -835,10 +819,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -849,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -859,8 +843,8 @@
       <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>6</v>
+      <c r="C48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -868,10 +852,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -882,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -890,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,8 +898,8 @@
       <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>6</v>
+      <c r="C53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,10 +907,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -937,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -945,10 +929,10 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -969,8 +953,8 @@
       <c r="B58" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>6</v>
+      <c r="C58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -978,10 +962,10 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -992,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1000,10 +984,10 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1014,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,8 +1008,8 @@
       <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>6</v>
+      <c r="C63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1033,10 +1017,10 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1047,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1055,10 +1039,10 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1079,8 +1063,8 @@
       <c r="B68" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>6</v>
+      <c r="C68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1088,10 +1072,10 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1102,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1110,10 +1094,10 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1124,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,8 +1118,8 @@
       <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>6</v>
+      <c r="C73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1143,10 +1127,10 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1157,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1165,10 +1149,10 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1179,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,8 +1173,8 @@
       <c r="B78" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>6</v>
+      <c r="C78" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1198,10 +1182,10 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1212,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1220,10 +1204,10 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1234,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,8 +1228,8 @@
       <c r="B83" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>6</v>
+      <c r="C83" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1253,10 +1237,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1267,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1275,10 +1259,10 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,8 +1283,8 @@
       <c r="B88" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>6</v>
+      <c r="C88" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1308,10 +1292,10 @@
         <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1322,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1330,10 +1314,10 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1344,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1354,8 +1338,8 @@
       <c r="B93" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>6</v>
+      <c r="C93" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1363,10 +1347,10 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1377,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1385,10 +1369,10 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1399,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1409,8 +1393,8 @@
       <c r="B98" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>6</v>
+      <c r="C98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1418,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1432,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1440,10 +1424,10 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1454,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1464,8 +1448,8 @@
       <c r="B103" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>6</v>
+      <c r="C103" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1473,10 +1457,10 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1487,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1495,10 +1479,10 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -1509,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1519,8 +1503,8 @@
       <c r="B108" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>6</v>
+      <c r="C108" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1528,10 +1512,10 @@
         <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1542,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1550,10 +1534,10 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1574,8 +1558,8 @@
       <c r="B113" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>6</v>
+      <c r="C113" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,10 +1567,10 @@
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1605,10 +1589,10 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1629,8 +1613,8 @@
       <c r="B118" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>6</v>
+      <c r="C118" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -1638,10 +1622,10 @@
         <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1660,10 +1644,10 @@
         <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1674,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,8 +1668,8 @@
       <c r="B123" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>6</v>
+      <c r="C123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1693,10 +1677,10 @@
         <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1707,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1715,10 +1699,10 @@
         <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -1729,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,8 +1723,8 @@
       <c r="B128" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>6</v>
+      <c r="C128" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1748,10 +1732,10 @@
         <v>26</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1762,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1770,10 +1754,10 @@
         <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -1784,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1794,8 +1778,8 @@
       <c r="B133" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>6</v>
+      <c r="C133" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1803,10 +1787,10 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1817,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1825,10 +1809,10 @@
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,8 +1833,8 @@
       <c r="B138" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>6</v>
+      <c r="C138" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1858,10 +1842,10 @@
         <v>28</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1872,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1880,10 +1864,10 @@
         <v>28</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1894,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -1904,8 +1888,8 @@
       <c r="B143" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>6</v>
+      <c r="C143" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -1913,10 +1897,10 @@
         <v>29</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -1927,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -1935,10 +1919,10 @@
         <v>29</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,8 +1943,8 @@
       <c r="B148" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>6</v>
+      <c r="C148" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -1968,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -1982,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -1990,10 +1974,10 @@
         <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/data-media.xlsx
+++ b/public/data-media.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -34,13 +34,163 @@
   </si>
   <si>
     <t>home_img.png</t>
+  </si>
+  <si>
+    <t>id-sinhvat</t>
+  </si>
+  <si>
+    <t>Tên khoa học:</t>
+  </si>
+  <si>
+    <t>Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012</t>
+  </si>
+  <si>
+    <t>Duttaphrynus melanostictus (Schneider, 1799)</t>
+  </si>
+  <si>
+    <t>Kaloula pulchra Gray, 1831</t>
+  </si>
+  <si>
+    <t>Microhyla heymonsii Vogt, 1911</t>
+  </si>
+  <si>
+    <t>Hylarana erythraea (Schlegel, 1837)</t>
+  </si>
+  <si>
+    <t>Polypedates megacephalus Hallowell, 1861</t>
+  </si>
+  <si>
+    <t>Calotes versicolor (Daudin, 1802)</t>
+  </si>
+  <si>
+    <t>Gehyra multilata (Weigmann,1835)</t>
+  </si>
+  <si>
+    <t>Hemidactylus garnotii (Conant and Collins, 1991)</t>
+  </si>
+  <si>
+    <t>Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836</t>
+  </si>
+  <si>
+    <t>Fejervarya limnocharis (Gravenhorst, 1829)</t>
+  </si>
+  <si>
+    <t>Fejervarya cancrivora (Gravenhorst, 1829)</t>
+  </si>
+  <si>
+    <t>Fejervarya sp.</t>
+  </si>
+  <si>
+    <t>Hoplobatrachus rugulosus (Wiegmann, 1834)</t>
+  </si>
+  <si>
+    <t>Occidozyga lima (Gravenhorst, 1829)</t>
+  </si>
+  <si>
+    <t>Occidozyga martensii (Peters, 1867)</t>
+  </si>
+  <si>
+    <t>Hemidactylus platyurus (Schneider, 1797)</t>
+  </si>
+  <si>
+    <t>Takydromus sexlineatus Daudin, 1802</t>
+  </si>
+  <si>
+    <t>Eutropis multifasciata (Kuhl, 1820)</t>
+  </si>
+  <si>
+    <t>Python molurus (Linnaeus, 1758)</t>
+  </si>
+  <si>
+    <t>Tên tiếng Việt</t>
+  </si>
+  <si>
+    <t>Ếch giun nguyễn</t>
+  </si>
+  <si>
+    <t>Cóc nhà</t>
+  </si>
+  <si>
+    <t>ỄN ương</t>
+  </si>
+  <si>
+    <t>Nhái bầu heymon</t>
+  </si>
+  <si>
+    <t>Chàng xanh</t>
+  </si>
+  <si>
+    <t>Ếch cây mép trắng</t>
+  </si>
+  <si>
+    <t>Nhông xanh, Nhông hàng rào, Kì nhông</t>
+  </si>
+  <si>
+    <t>Thằn lằn 4 móng</t>
+  </si>
+  <si>
+    <t>Thạch sùng garnot</t>
+  </si>
+  <si>
+    <t>Thạch sùng đuôi sần</t>
+  </si>
+  <si>
+    <t>Nhái Ngóe</t>
+  </si>
+  <si>
+    <t>Ếch cua</t>
+  </si>
+  <si>
+    <t>Nhái cơm</t>
+  </si>
+  <si>
+    <t>Ếch đồng</t>
+  </si>
+  <si>
+    <t>Cóc nước sần</t>
+  </si>
+  <si>
+    <t>Cóc nước marten</t>
+  </si>
+  <si>
+    <t>Ễn ương</t>
+  </si>
+  <si>
+    <t>Nhông hàng rào</t>
+  </si>
+  <si>
+    <t>Thạch sùng đuôi dẹp</t>
+  </si>
+  <si>
+    <t>Thằn lằn đuôi dài</t>
+  </si>
+  <si>
+    <t>Thằn lằn bóng hoa</t>
+  </si>
+  <si>
+    <t>Trăn lưới</t>
+  </si>
+  <si>
+    <t>/img1.JPG</t>
+  </si>
+  <si>
+    <t>/img2.JPG</t>
+  </si>
+  <si>
+    <t>/img3.JPG</t>
+  </si>
+  <si>
+    <t>/img4.JPG</t>
+  </si>
+  <si>
+    <t>/img5.JPG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -60,6 +210,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,11 +237,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -92,6 +267,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,19 +490,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -329,8 +520,23 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -340,8 +546,31 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>VLOOKUP(A2,$G$1:$H$31,2,0)</f>
+        <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(J2, ". ", K2,"-",L2)</f>
+        <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -351,8 +580,31 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f>VLOOKUP(A3,$G$1:$H$31,2,0)</f>
+        <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H31" si="0">CONCATENATE(J3, ". ", K3,"-",L3)</f>
+        <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -362,8 +614,31 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f>VLOOKUP(A4,$G$1:$H$31,2,0)</f>
+        <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -373,8 +648,31 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f>VLOOKUP(A5,$G$1:$H$31,2,0)</f>
+        <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -384,8 +682,31 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f>VLOOKUP(A6,$G$1:$H$31,2,0)</f>
+        <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -395,8 +716,31 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f>VLOOKUP(A7,$G$1:$H$31,2,0)</f>
+        <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="J7" s="5">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -406,8 +750,31 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f>VLOOKUP(A8,$G$1:$H$31,2,0)</f>
+        <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
+      </c>
+      <c r="J8" s="5">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -417,8 +784,31 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f>VLOOKUP(A9,$G$1:$H$31,2,0)</f>
+        <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="J9" s="5">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -428,8 +818,31 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f>VLOOKUP(A10,$G$1:$H$31,2,0)</f>
+        <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5">
+        <v>9</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -439,8 +852,31 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <f>VLOOKUP(A11,$G$1:$H$31,2,0)</f>
+        <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="J11" s="5">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -450,8 +886,31 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" t="str">
+        <f>VLOOKUP(A12,$G$1:$H$31,2,0)</f>
+        <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5">
+        <v>11</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="J12" s="5">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -461,8 +920,31 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" t="str">
+        <f>VLOOKUP(A13,$G$1:$H$31,2,0)</f>
+        <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="J13" s="5">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -472,8 +954,31 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" t="str">
+        <f>VLOOKUP(A14,$G$1:$H$31,2,0)</f>
+        <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="5">
+        <v>13</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
+      </c>
+      <c r="J14" s="5">
+        <v>13</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -483,8 +988,31 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" t="str">
+        <f>VLOOKUP(A15,$G$1:$H$31,2,0)</f>
+        <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="5">
+        <v>14</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
+      </c>
+      <c r="J15" s="5">
+        <v>14</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -494,8 +1022,31 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="str">
+        <f>VLOOKUP(A16,$G$1:$H$31,2,0)</f>
+        <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="5">
+        <v>15</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>15. Fejervarya sp.-Nhái cơm</v>
+      </c>
+      <c r="J16" s="5">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -505,8 +1056,31 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="str">
+        <f>VLOOKUP(A17,$G$1:$H$31,2,0)</f>
+        <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5">
+        <v>16</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
+      </c>
+      <c r="J17" s="5">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -516,8 +1090,31 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="str">
+        <f>VLOOKUP(A18,$G$1:$H$31,2,0)</f>
+        <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="5">
+        <v>17</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
+      </c>
+      <c r="J18" s="5">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -527,8 +1124,31 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="str">
+        <f>VLOOKUP(A19,$G$1:$H$31,2,0)</f>
+        <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="5">
+        <v>18</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
+      </c>
+      <c r="J19" s="5">
+        <v>18</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -538,8 +1158,31 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" t="str">
+        <f>VLOOKUP(A20,$G$1:$H$31,2,0)</f>
+        <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="5">
+        <v>19</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
+      </c>
+      <c r="J20" s="5">
+        <v>19</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -549,8 +1192,31 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" t="str">
+        <f>VLOOKUP(A21,$G$1:$H$31,2,0)</f>
+        <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5">
+        <v>20</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="J21" s="5">
+        <v>20</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -560,8 +1226,31 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="str">
+        <f>VLOOKUP(A22,$G$1:$H$31,2,0)</f>
+        <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5">
+        <v>21</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="J22" s="5">
+        <v>21</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -571,8 +1260,31 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="str">
+        <f>VLOOKUP(A23,$G$1:$H$31,2,0)</f>
+        <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="5">
+        <v>22</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="J23" s="5">
+        <v>22</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -582,8 +1294,31 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="str">
+        <f>VLOOKUP(A24,$G$1:$H$31,2,0)</f>
+        <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="5">
+        <v>23</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
+      </c>
+      <c r="J24" s="5">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -593,8 +1328,31 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="str">
+        <f>VLOOKUP(A25,$G$1:$H$31,2,0)</f>
+        <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="5">
+        <v>24</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="J25" s="5">
+        <v>24</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -604,8 +1362,31 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="str">
+        <f>VLOOKUP(A26,$G$1:$H$31,2,0)</f>
+        <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="5">
+        <v>25</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="J26" s="5">
+        <v>25</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -615,8 +1396,31 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" t="str">
+        <f>VLOOKUP(A27,$G$1:$H$31,2,0)</f>
+        <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5">
+        <v>26</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="J27" s="5">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -626,8 +1430,31 @@
       <c r="C28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" t="str">
+        <f>VLOOKUP(A28,$G$1:$H$31,2,0)</f>
+        <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5">
+        <v>27</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
+      </c>
+      <c r="J28" s="5">
+        <v>27</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -637,8 +1464,31 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="str">
+        <f>VLOOKUP(A29,$G$1:$H$31,2,0)</f>
+        <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5">
+        <v>28</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
+      </c>
+      <c r="J29" s="5">
+        <v>28</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -648,8 +1498,31 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="str">
+        <f>VLOOKUP(A30,$G$1:$H$31,2,0)</f>
+        <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="5">
+        <v>29</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
+      </c>
+      <c r="J30" s="5">
+        <v>29</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -659,8 +1532,31 @@
       <c r="C31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="str">
+        <f>VLOOKUP(A31,$G$1:$H$31,2,0)</f>
+        <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="5">
+        <v>30</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
+      </c>
+      <c r="J31" s="5">
+        <v>30</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -670,8 +1566,15 @@
       <c r="C32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="str">
+        <f>VLOOKUP(A32,$G$1:$H$31,2,0)</f>
+        <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -681,8 +1584,15 @@
       <c r="C33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="str">
+        <f>VLOOKUP(A33,$G$1:$H$31,2,0)</f>
+        <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -692,8 +1602,15 @@
       <c r="C34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="str">
+        <f>VLOOKUP(A34,$G$1:$H$31,2,0)</f>
+        <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -703,8 +1620,15 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="str">
+        <f>VLOOKUP(A35,$G$1:$H$31,2,0)</f>
+        <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -714,8 +1638,15 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="str">
+        <f>VLOOKUP(A36,$G$1:$H$31,2,0)</f>
+        <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -725,8 +1656,15 @@
       <c r="C37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" t="str">
+        <f>VLOOKUP(A37,$G$1:$H$31,2,0)</f>
+        <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -736,8 +1674,15 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" t="str">
+        <f>VLOOKUP(A38,$G$1:$H$31,2,0)</f>
+        <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -747,8 +1692,15 @@
       <c r="C39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="str">
+        <f>VLOOKUP(A39,$G$1:$H$31,2,0)</f>
+        <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -758,8 +1710,15 @@
       <c r="C40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="str">
+        <f>VLOOKUP(A40,$G$1:$H$31,2,0)</f>
+        <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -769,8 +1728,15 @@
       <c r="C41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="str">
+        <f>VLOOKUP(A41,$G$1:$H$31,2,0)</f>
+        <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>9</v>
       </c>
@@ -780,8 +1746,15 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="str">
+        <f>VLOOKUP(A42,$G$1:$H$31,2,0)</f>
+        <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>9</v>
       </c>
@@ -791,8 +1764,15 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" t="str">
+        <f>VLOOKUP(A43,$G$1:$H$31,2,0)</f>
+        <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -802,8 +1782,15 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" t="str">
+        <f>VLOOKUP(A44,$G$1:$H$31,2,0)</f>
+        <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>9</v>
       </c>
@@ -813,8 +1800,15 @@
       <c r="C45" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45" t="str">
+        <f>VLOOKUP(A45,$G$1:$H$31,2,0)</f>
+        <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>9</v>
       </c>
@@ -824,8 +1818,15 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="str">
+        <f>VLOOKUP(A46,$G$1:$H$31,2,0)</f>
+        <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>10</v>
       </c>
@@ -835,8 +1836,15 @@
       <c r="C47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="str">
+        <f>VLOOKUP(A47,$G$1:$H$31,2,0)</f>
+        <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -846,8 +1854,15 @@
       <c r="C48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="str">
+        <f>VLOOKUP(A48,$G$1:$H$31,2,0)</f>
+        <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>10</v>
       </c>
@@ -857,8 +1872,15 @@
       <c r="C49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="str">
+        <f>VLOOKUP(A49,$G$1:$H$31,2,0)</f>
+        <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>10</v>
       </c>
@@ -868,8 +1890,15 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="str">
+        <f>VLOOKUP(A50,$G$1:$H$31,2,0)</f>
+        <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>10</v>
       </c>
@@ -879,8 +1908,15 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" t="str">
+        <f>VLOOKUP(A51,$G$1:$H$31,2,0)</f>
+        <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>11</v>
       </c>
@@ -890,8 +1926,15 @@
       <c r="C52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="str">
+        <f>VLOOKUP(A52,$G$1:$H$31,2,0)</f>
+        <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>11</v>
       </c>
@@ -901,8 +1944,15 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="str">
+        <f>VLOOKUP(A53,$G$1:$H$31,2,0)</f>
+        <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>11</v>
       </c>
@@ -912,8 +1962,15 @@
       <c r="C54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="str">
+        <f>VLOOKUP(A54,$G$1:$H$31,2,0)</f>
+        <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>11</v>
       </c>
@@ -923,8 +1980,15 @@
       <c r="C55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="str">
+        <f>VLOOKUP(A55,$G$1:$H$31,2,0)</f>
+        <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>11</v>
       </c>
@@ -934,8 +1998,15 @@
       <c r="C56" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" t="str">
+        <f>VLOOKUP(A56,$G$1:$H$31,2,0)</f>
+        <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>12</v>
       </c>
@@ -945,8 +2016,15 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" t="str">
+        <f>VLOOKUP(A57,$G$1:$H$31,2,0)</f>
+        <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>12</v>
       </c>
@@ -956,8 +2034,15 @@
       <c r="C58" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" t="str">
+        <f>VLOOKUP(A58,$G$1:$H$31,2,0)</f>
+        <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>12</v>
       </c>
@@ -967,8 +2052,15 @@
       <c r="C59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" t="str">
+        <f>VLOOKUP(A59,$G$1:$H$31,2,0)</f>
+        <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>12</v>
       </c>
@@ -978,8 +2070,15 @@
       <c r="C60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" t="str">
+        <f>VLOOKUP(A60,$G$1:$H$31,2,0)</f>
+        <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -989,8 +2088,15 @@
       <c r="C61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" t="str">
+        <f>VLOOKUP(A61,$G$1:$H$31,2,0)</f>
+        <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
+      </c>
+      <c r="F61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>13</v>
       </c>
@@ -1000,8 +2106,15 @@
       <c r="C62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" t="str">
+        <f>VLOOKUP(A62,$G$1:$H$31,2,0)</f>
+        <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>13</v>
       </c>
@@ -1011,8 +2124,15 @@
       <c r="C63" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63" t="str">
+        <f>VLOOKUP(A63,$G$1:$H$31,2,0)</f>
+        <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
+      </c>
+      <c r="F63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -1022,8 +2142,15 @@
       <c r="C64" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="str">
+        <f>VLOOKUP(A64,$G$1:$H$31,2,0)</f>
+        <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
+      </c>
+      <c r="F64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>13</v>
       </c>
@@ -1033,8 +2160,15 @@
       <c r="C65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" t="str">
+        <f>VLOOKUP(A65,$G$1:$H$31,2,0)</f>
+        <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
+      </c>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>13</v>
       </c>
@@ -1044,8 +2178,15 @@
       <c r="C66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" t="str">
+        <f>VLOOKUP(A66,$G$1:$H$31,2,0)</f>
+        <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
+      </c>
+      <c r="F66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>14</v>
       </c>
@@ -1055,8 +2196,15 @@
       <c r="C67" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" t="str">
+        <f>VLOOKUP(A67,$G$1:$H$31,2,0)</f>
+        <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
+      </c>
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>14</v>
       </c>
@@ -1066,8 +2214,15 @@
       <c r="C68" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" t="str">
+        <f>VLOOKUP(A68,$G$1:$H$31,2,0)</f>
+        <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
+      </c>
+      <c r="F68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>14</v>
       </c>
@@ -1077,8 +2232,15 @@
       <c r="C69" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" t="str">
+        <f>VLOOKUP(A69,$G$1:$H$31,2,0)</f>
+        <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
+      </c>
+      <c r="F69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>14</v>
       </c>
@@ -1088,8 +2250,15 @@
       <c r="C70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="str">
+        <f>VLOOKUP(A70,$G$1:$H$31,2,0)</f>
+        <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>14</v>
       </c>
@@ -1099,8 +2268,15 @@
       <c r="C71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" t="str">
+        <f>VLOOKUP(A71,$G$1:$H$31,2,0)</f>
+        <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
+      </c>
+      <c r="F71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>15</v>
       </c>
@@ -1110,8 +2286,15 @@
       <c r="C72" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" t="str">
+        <f>VLOOKUP(A72,$G$1:$H$31,2,0)</f>
+        <v>15. Fejervarya sp.-Nhái cơm</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>15</v>
       </c>
@@ -1121,8 +2304,15 @@
       <c r="C73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" t="str">
+        <f>VLOOKUP(A73,$G$1:$H$31,2,0)</f>
+        <v>15. Fejervarya sp.-Nhái cơm</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>15</v>
       </c>
@@ -1132,8 +2322,15 @@
       <c r="C74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" t="str">
+        <f>VLOOKUP(A74,$G$1:$H$31,2,0)</f>
+        <v>15. Fejervarya sp.-Nhái cơm</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>15</v>
       </c>
@@ -1143,8 +2340,15 @@
       <c r="C75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" t="str">
+        <f>VLOOKUP(A75,$G$1:$H$31,2,0)</f>
+        <v>15. Fejervarya sp.-Nhái cơm</v>
+      </c>
+      <c r="F75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>15</v>
       </c>
@@ -1154,8 +2358,15 @@
       <c r="C76" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" t="str">
+        <f>VLOOKUP(A76,$G$1:$H$31,2,0)</f>
+        <v>15. Fejervarya sp.-Nhái cơm</v>
+      </c>
+      <c r="F76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>16</v>
       </c>
@@ -1165,8 +2376,15 @@
       <c r="C77" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" t="str">
+        <f>VLOOKUP(A77,$G$1:$H$31,2,0)</f>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
+      </c>
+      <c r="F77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>16</v>
       </c>
@@ -1176,8 +2394,15 @@
       <c r="C78" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" t="str">
+        <f>VLOOKUP(A78,$G$1:$H$31,2,0)</f>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
+      </c>
+      <c r="F78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>16</v>
       </c>
@@ -1187,8 +2412,15 @@
       <c r="C79" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" t="str">
+        <f>VLOOKUP(A79,$G$1:$H$31,2,0)</f>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
+      </c>
+      <c r="F79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -1198,8 +2430,15 @@
       <c r="C80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80" t="str">
+        <f>VLOOKUP(A80,$G$1:$H$31,2,0)</f>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
+      </c>
+      <c r="F80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>16</v>
       </c>
@@ -1209,8 +2448,15 @@
       <c r="C81" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E81" t="str">
+        <f>VLOOKUP(A81,$G$1:$H$31,2,0)</f>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
+      </c>
+      <c r="F81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>17</v>
       </c>
@@ -1220,8 +2466,15 @@
       <c r="C82" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82" t="str">
+        <f>VLOOKUP(A82,$G$1:$H$31,2,0)</f>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>17</v>
       </c>
@@ -1231,8 +2484,15 @@
       <c r="C83" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E83" t="str">
+        <f>VLOOKUP(A83,$G$1:$H$31,2,0)</f>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
+      </c>
+      <c r="F83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>17</v>
       </c>
@@ -1242,8 +2502,15 @@
       <c r="C84" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84" t="str">
+        <f>VLOOKUP(A84,$G$1:$H$31,2,0)</f>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
+      </c>
+      <c r="F84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>17</v>
       </c>
@@ -1253,8 +2520,15 @@
       <c r="C85" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E85" t="str">
+        <f>VLOOKUP(A85,$G$1:$H$31,2,0)</f>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
+      </c>
+      <c r="F85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>17</v>
       </c>
@@ -1264,8 +2538,15 @@
       <c r="C86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86" t="str">
+        <f>VLOOKUP(A86,$G$1:$H$31,2,0)</f>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
+      </c>
+      <c r="F86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>18</v>
       </c>
@@ -1275,8 +2556,15 @@
       <c r="C87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E87" t="str">
+        <f>VLOOKUP(A87,$G$1:$H$31,2,0)</f>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
+      </c>
+      <c r="F87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>18</v>
       </c>
@@ -1286,8 +2574,15 @@
       <c r="C88" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88" t="str">
+        <f>VLOOKUP(A88,$G$1:$H$31,2,0)</f>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
+      </c>
+      <c r="F88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>18</v>
       </c>
@@ -1297,8 +2592,15 @@
       <c r="C89" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89" t="str">
+        <f>VLOOKUP(A89,$G$1:$H$31,2,0)</f>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
+      </c>
+      <c r="F89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>18</v>
       </c>
@@ -1308,8 +2610,15 @@
       <c r="C90" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90" t="str">
+        <f>VLOOKUP(A90,$G$1:$H$31,2,0)</f>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
+      </c>
+      <c r="F90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>18</v>
       </c>
@@ -1319,8 +2628,15 @@
       <c r="C91" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E91" t="str">
+        <f>VLOOKUP(A91,$G$1:$H$31,2,0)</f>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
+      </c>
+      <c r="F91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>19</v>
       </c>
@@ -1330,8 +2646,15 @@
       <c r="C92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92" t="str">
+        <f>VLOOKUP(A92,$G$1:$H$31,2,0)</f>
+        <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
+      </c>
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>19</v>
       </c>
@@ -1341,8 +2664,15 @@
       <c r="C93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E93" t="str">
+        <f>VLOOKUP(A93,$G$1:$H$31,2,0)</f>
+        <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
+      </c>
+      <c r="F93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -1352,8 +2682,15 @@
       <c r="C94" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94" t="str">
+        <f>VLOOKUP(A94,$G$1:$H$31,2,0)</f>
+        <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
+      </c>
+      <c r="F94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>19</v>
       </c>
@@ -1363,8 +2700,15 @@
       <c r="C95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E95" t="str">
+        <f>VLOOKUP(A95,$G$1:$H$31,2,0)</f>
+        <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
+      </c>
+      <c r="F95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>19</v>
       </c>
@@ -1374,8 +2718,15 @@
       <c r="C96" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96" t="str">
+        <f>VLOOKUP(A96,$G$1:$H$31,2,0)</f>
+        <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
+      </c>
+      <c r="F96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>20</v>
       </c>
@@ -1385,8 +2736,15 @@
       <c r="C97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97" t="str">
+        <f>VLOOKUP(A97,$G$1:$H$31,2,0)</f>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>20</v>
       </c>
@@ -1396,8 +2754,15 @@
       <c r="C98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98" t="str">
+        <f>VLOOKUP(A98,$G$1:$H$31,2,0)</f>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>20</v>
       </c>
@@ -1407,8 +2772,15 @@
       <c r="C99" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E99" t="str">
+        <f>VLOOKUP(A99,$G$1:$H$31,2,0)</f>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>20</v>
       </c>
@@ -1418,8 +2790,15 @@
       <c r="C100" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100" t="str">
+        <f>VLOOKUP(A100,$G$1:$H$31,2,0)</f>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>20</v>
       </c>
@@ -1429,8 +2808,15 @@
       <c r="C101" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E101" t="str">
+        <f>VLOOKUP(A101,$G$1:$H$31,2,0)</f>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
+      </c>
+      <c r="F101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>21</v>
       </c>
@@ -1440,8 +2826,15 @@
       <c r="C102" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102" t="str">
+        <f>VLOOKUP(A102,$G$1:$H$31,2,0)</f>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>21</v>
       </c>
@@ -1451,8 +2844,15 @@
       <c r="C103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E103" t="str">
+        <f>VLOOKUP(A103,$G$1:$H$31,2,0)</f>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>21</v>
       </c>
@@ -1462,8 +2862,15 @@
       <c r="C104" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104" t="str">
+        <f>VLOOKUP(A104,$G$1:$H$31,2,0)</f>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>21</v>
       </c>
@@ -1473,8 +2880,15 @@
       <c r="C105" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E105" t="str">
+        <f>VLOOKUP(A105,$G$1:$H$31,2,0)</f>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>21</v>
       </c>
@@ -1484,8 +2898,15 @@
       <c r="C106" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106" t="str">
+        <f>VLOOKUP(A106,$G$1:$H$31,2,0)</f>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
+      </c>
+      <c r="F106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>22</v>
       </c>
@@ -1495,8 +2916,15 @@
       <c r="C107" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E107" t="str">
+        <f>VLOOKUP(A107,$G$1:$H$31,2,0)</f>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>22</v>
       </c>
@@ -1506,8 +2934,15 @@
       <c r="C108" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E108" t="str">
+        <f>VLOOKUP(A108,$G$1:$H$31,2,0)</f>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>22</v>
       </c>
@@ -1517,8 +2952,15 @@
       <c r="C109" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E109" t="str">
+        <f>VLOOKUP(A109,$G$1:$H$31,2,0)</f>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>22</v>
       </c>
@@ -1528,8 +2970,15 @@
       <c r="C110" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E110" t="str">
+        <f>VLOOKUP(A110,$G$1:$H$31,2,0)</f>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>22</v>
       </c>
@@ -1539,8 +2988,15 @@
       <c r="C111" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E111" t="str">
+        <f>VLOOKUP(A111,$G$1:$H$31,2,0)</f>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
+      </c>
+      <c r="F111" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>23</v>
       </c>
@@ -1550,8 +3006,15 @@
       <c r="C112" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E112" t="str">
+        <f>VLOOKUP(A112,$G$1:$H$31,2,0)</f>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
+      </c>
+      <c r="F112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>23</v>
       </c>
@@ -1561,8 +3024,15 @@
       <c r="C113" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E113" t="str">
+        <f>VLOOKUP(A113,$G$1:$H$31,2,0)</f>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
+      </c>
+      <c r="F113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>23</v>
       </c>
@@ -1572,8 +3042,15 @@
       <c r="C114" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E114" t="str">
+        <f>VLOOKUP(A114,$G$1:$H$31,2,0)</f>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>23</v>
       </c>
@@ -1583,8 +3060,15 @@
       <c r="C115" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E115" t="str">
+        <f>VLOOKUP(A115,$G$1:$H$31,2,0)</f>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
+      </c>
+      <c r="F115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>23</v>
       </c>
@@ -1594,8 +3078,15 @@
       <c r="C116" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E116" t="str">
+        <f>VLOOKUP(A116,$G$1:$H$31,2,0)</f>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
+      </c>
+      <c r="F116" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>24</v>
       </c>
@@ -1605,8 +3096,15 @@
       <c r="C117" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E117" t="str">
+        <f>VLOOKUP(A117,$G$1:$H$31,2,0)</f>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>24</v>
       </c>
@@ -1616,8 +3114,15 @@
       <c r="C118" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E118" t="str">
+        <f>VLOOKUP(A118,$G$1:$H$31,2,0)</f>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F118" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>24</v>
       </c>
@@ -1627,8 +3132,15 @@
       <c r="C119" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E119" t="str">
+        <f>VLOOKUP(A119,$G$1:$H$31,2,0)</f>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F119" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>24</v>
       </c>
@@ -1638,8 +3150,15 @@
       <c r="C120" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E120" t="str">
+        <f>VLOOKUP(A120,$G$1:$H$31,2,0)</f>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>24</v>
       </c>
@@ -1649,8 +3168,15 @@
       <c r="C121" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E121" t="str">
+        <f>VLOOKUP(A121,$G$1:$H$31,2,0)</f>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
+      </c>
+      <c r="F121" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>25</v>
       </c>
@@ -1660,8 +3186,15 @@
       <c r="C122" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E122" t="str">
+        <f>VLOOKUP(A122,$G$1:$H$31,2,0)</f>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>25</v>
       </c>
@@ -1671,8 +3204,15 @@
       <c r="C123" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E123" t="str">
+        <f>VLOOKUP(A123,$G$1:$H$31,2,0)</f>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>25</v>
       </c>
@@ -1682,8 +3222,15 @@
       <c r="C124" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E124" t="str">
+        <f>VLOOKUP(A124,$G$1:$H$31,2,0)</f>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F124" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>25</v>
       </c>
@@ -1693,8 +3240,15 @@
       <c r="C125" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E125" t="str">
+        <f>VLOOKUP(A125,$G$1:$H$31,2,0)</f>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>25</v>
       </c>
@@ -1704,8 +3258,15 @@
       <c r="C126" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E126" t="str">
+        <f>VLOOKUP(A126,$G$1:$H$31,2,0)</f>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
+      </c>
+      <c r="F126" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>26</v>
       </c>
@@ -1715,8 +3276,15 @@
       <c r="C127" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E127" t="str">
+        <f>VLOOKUP(A127,$G$1:$H$31,2,0)</f>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>26</v>
       </c>
@@ -1726,8 +3294,15 @@
       <c r="C128" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E128" t="str">
+        <f>VLOOKUP(A128,$G$1:$H$31,2,0)</f>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>26</v>
       </c>
@@ -1737,8 +3312,15 @@
       <c r="C129" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E129" t="str">
+        <f>VLOOKUP(A129,$G$1:$H$31,2,0)</f>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>26</v>
       </c>
@@ -1748,8 +3330,15 @@
       <c r="C130" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E130" t="str">
+        <f>VLOOKUP(A130,$G$1:$H$31,2,0)</f>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F130" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>26</v>
       </c>
@@ -1759,8 +3348,15 @@
       <c r="C131" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E131" t="str">
+        <f>VLOOKUP(A131,$G$1:$H$31,2,0)</f>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
+      </c>
+      <c r="F131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>27</v>
       </c>
@@ -1770,8 +3366,15 @@
       <c r="C132" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E132" t="str">
+        <f>VLOOKUP(A132,$G$1:$H$31,2,0)</f>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
+      </c>
+      <c r="F132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>27</v>
       </c>
@@ -1781,8 +3384,15 @@
       <c r="C133" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E133" t="str">
+        <f>VLOOKUP(A133,$G$1:$H$31,2,0)</f>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
+      </c>
+      <c r="F133" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>27</v>
       </c>
@@ -1792,8 +3402,15 @@
       <c r="C134" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E134" t="str">
+        <f>VLOOKUP(A134,$G$1:$H$31,2,0)</f>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
+      </c>
+      <c r="F134" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>27</v>
       </c>
@@ -1803,8 +3420,15 @@
       <c r="C135" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E135" t="str">
+        <f>VLOOKUP(A135,$G$1:$H$31,2,0)</f>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
+      </c>
+      <c r="F135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>27</v>
       </c>
@@ -1814,8 +3438,15 @@
       <c r="C136" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E136" t="str">
+        <f>VLOOKUP(A136,$G$1:$H$31,2,0)</f>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
+      </c>
+      <c r="F136" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>28</v>
       </c>
@@ -1825,8 +3456,15 @@
       <c r="C137" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E137" t="str">
+        <f>VLOOKUP(A137,$G$1:$H$31,2,0)</f>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
+      </c>
+      <c r="F137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>28</v>
       </c>
@@ -1836,8 +3474,15 @@
       <c r="C138" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E138" t="str">
+        <f>VLOOKUP(A138,$G$1:$H$31,2,0)</f>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
+      </c>
+      <c r="F138" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>28</v>
       </c>
@@ -1847,8 +3492,15 @@
       <c r="C139" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E139" t="str">
+        <f>VLOOKUP(A139,$G$1:$H$31,2,0)</f>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
+      </c>
+      <c r="F139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>28</v>
       </c>
@@ -1858,8 +3510,15 @@
       <c r="C140" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E140" t="str">
+        <f>VLOOKUP(A140,$G$1:$H$31,2,0)</f>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
+      </c>
+      <c r="F140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>28</v>
       </c>
@@ -1869,8 +3528,15 @@
       <c r="C141" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E141" t="str">
+        <f>VLOOKUP(A141,$G$1:$H$31,2,0)</f>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
+      </c>
+      <c r="F141" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>29</v>
       </c>
@@ -1880,8 +3546,15 @@
       <c r="C142" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E142" t="str">
+        <f>VLOOKUP(A142,$G$1:$H$31,2,0)</f>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
+      </c>
+      <c r="F142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>29</v>
       </c>
@@ -1891,8 +3564,15 @@
       <c r="C143" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E143" t="str">
+        <f>VLOOKUP(A143,$G$1:$H$31,2,0)</f>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
+      </c>
+      <c r="F143" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>29</v>
       </c>
@@ -1902,8 +3582,15 @@
       <c r="C144" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E144" t="str">
+        <f>VLOOKUP(A144,$G$1:$H$31,2,0)</f>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
+      </c>
+      <c r="F144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>29</v>
       </c>
@@ -1913,8 +3600,15 @@
       <c r="C145" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E145" t="str">
+        <f>VLOOKUP(A145,$G$1:$H$31,2,0)</f>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
+      </c>
+      <c r="F145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>29</v>
       </c>
@@ -1924,8 +3618,15 @@
       <c r="C146" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E146" t="str">
+        <f>VLOOKUP(A146,$G$1:$H$31,2,0)</f>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
+      </c>
+      <c r="F146" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>30</v>
       </c>
@@ -1935,8 +3636,15 @@
       <c r="C147" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E147" t="str">
+        <f>VLOOKUP(A147,$G$1:$H$31,2,0)</f>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
+      </c>
+      <c r="F147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>30</v>
       </c>
@@ -1946,8 +3654,15 @@
       <c r="C148" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E148" t="str">
+        <f>VLOOKUP(A148,$G$1:$H$31,2,0)</f>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
+      </c>
+      <c r="F148" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>30</v>
       </c>
@@ -1957,8 +3672,15 @@
       <c r="C149" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E149" t="str">
+        <f>VLOOKUP(A149,$G$1:$H$31,2,0)</f>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
+      </c>
+      <c r="F149" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>30</v>
       </c>
@@ -1968,8 +3690,15 @@
       <c r="C150" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E150" t="str">
+        <f>VLOOKUP(A150,$G$1:$H$31,2,0)</f>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
+      </c>
+      <c r="F150" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>30</v>
       </c>
@@ -1978,6 +3707,13 @@
       </c>
       <c r="C151" t="s">
         <v>4</v>
+      </c>
+      <c r="E151" t="str">
+        <f>VLOOKUP(A151,$G$1:$H$31,2,0)</f>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
+      </c>
+      <c r="F151" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/public/data-media.xlsx
+++ b/public/data-media.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="324">
   <si>
     <t>id</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Fejervarya cancrivora (Gravenhorst, 1829)</t>
   </si>
   <si>
-    <t>Fejervarya sp.</t>
-  </si>
-  <si>
     <t>Hoplobatrachus rugulosus (Wiegmann, 1834)</t>
   </si>
   <si>
@@ -771,211 +768,229 @@
     <t>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua/img3.JPG</t>
   </si>
   <si>
-    <t>15. Fejervarya sp.-Nhái cơm/img1.JPG</t>
-  </si>
-  <si>
-    <t>15. Fejervarya sp.-Nhái cơm/img2.JPG</t>
-  </si>
-  <si>
-    <t>15. Fejervarya sp.-Nhái cơm/img3.JPG</t>
-  </si>
-  <si>
-    <t>15. Fejervarya sp.-Nhái cơm/img4.JPG</t>
-  </si>
-  <si>
-    <t>15. Fejervarya sp.-Nhái cơm/img5.JPG</t>
-  </si>
-  <si>
-    <t>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/img1.JPG</t>
-  </si>
-  <si>
-    <t>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/img2.JPG</t>
-  </si>
-  <si>
-    <t>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/img3.JPG</t>
-  </si>
-  <si>
-    <t>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/img4.JPG</t>
-  </si>
-  <si>
-    <t>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/img1.JPG</t>
-  </si>
-  <si>
-    <t>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/img2.JPG</t>
-  </si>
-  <si>
-    <t>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/img3.JPG</t>
-  </si>
-  <si>
-    <t>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/img1.JPG</t>
-  </si>
-  <si>
-    <t>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/img2.JPG</t>
-  </si>
-  <si>
-    <t>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/img3.JPG</t>
-  </si>
-  <si>
-    <t>19. Kaloula pulchra Gray, 1831-Ễn ương/img1.JPG</t>
-  </si>
-  <si>
-    <t>19. Kaloula pulchra Gray, 1831-Ễn ương/img2.JPG</t>
-  </si>
-  <si>
-    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img1.JPG</t>
-  </si>
-  <si>
-    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img2.JPG</t>
-  </si>
-  <si>
-    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img3.JPG</t>
-  </si>
-  <si>
-    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img4.JPG</t>
-  </si>
-  <si>
-    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img5.JPG</t>
-  </si>
-  <si>
-    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img1.JPG</t>
-  </si>
-  <si>
-    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img2.JPG</t>
-  </si>
-  <si>
-    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img3.JPG</t>
-  </si>
-  <si>
-    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img4.JPG</t>
-  </si>
-  <si>
-    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img5.JPG</t>
-  </si>
-  <si>
-    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img1.JPG</t>
-  </si>
-  <si>
-    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img2.JPG</t>
-  </si>
-  <si>
-    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img3.JPG</t>
-  </si>
-  <si>
-    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img4.JPG</t>
-  </si>
-  <si>
-    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img5.JPG</t>
-  </si>
-  <si>
-    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img1.JPG</t>
-  </si>
-  <si>
-    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img2.JPG</t>
-  </si>
-  <si>
-    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img3.JPG</t>
-  </si>
-  <si>
-    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img4.JPG</t>
-  </si>
-  <si>
-    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img5.JPG</t>
-  </si>
-  <si>
-    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img1.JPG</t>
-  </si>
-  <si>
-    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img2.JPG</t>
-  </si>
-  <si>
-    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img3.JPG</t>
-  </si>
-  <si>
-    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img4.JPG</t>
-  </si>
-  <si>
-    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img5.JPG</t>
-  </si>
-  <si>
-    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img1.JPG</t>
-  </si>
-  <si>
-    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img2.JPG</t>
-  </si>
-  <si>
-    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img3.JPG</t>
-  </si>
-  <si>
-    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img4.JPG</t>
-  </si>
-  <si>
-    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img5.JPG</t>
-  </si>
-  <si>
-    <t>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/img1.JPG</t>
-  </si>
-  <si>
-    <t>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/img2.JPG</t>
-  </si>
-  <si>
-    <t>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/img3.JPG</t>
-  </si>
-  <si>
-    <t>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/img1.JPG</t>
-  </si>
-  <si>
-    <t>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/img2.JPG</t>
-  </si>
-  <si>
-    <t>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/img3.JPG</t>
-  </si>
-  <si>
-    <t>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/img4.JPG</t>
-  </si>
-  <si>
-    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img1.JPG</t>
-  </si>
-  <si>
-    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img2.JPG</t>
-  </si>
-  <si>
-    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img3.JPG</t>
-  </si>
-  <si>
-    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img4.JPG</t>
-  </si>
-  <si>
-    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img5.JPG</t>
-  </si>
-  <si>
-    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img1.JPG</t>
-  </si>
-  <si>
-    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img2.JPG</t>
-  </si>
-  <si>
-    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img3.JPG</t>
-  </si>
-  <si>
-    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img4.JPG</t>
-  </si>
-  <si>
-    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img5.JPG</t>
-  </si>
-  <si>
-    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img1.JPG</t>
-  </si>
-  <si>
-    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img2.JPG</t>
-  </si>
-  <si>
-    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img3.JPG</t>
-  </si>
-  <si>
-    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img4.JPG</t>
-  </si>
-  <si>
-    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img5.JPG</t>
+    <t>Fejervarya sp</t>
+  </si>
+  <si>
+    <t>/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>15. Fejervarya sp-Nhái cơm/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>15. Fejervarya sp-Nhái cơm/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>15. Fejervarya sp-Nhái cơm/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>15. Fejervarya sp-Nhái cơm/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>15. Fejervarya sp-Nhái cơm/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>19. Kaloula pulchra Gray, 1831-Ễn ương/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>19. Kaloula pulchra Gray, 1831-Ễn ương/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_5.JPG</t>
+  </si>
+  <si>
+    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_1.JPG</t>
+  </si>
+  <si>
+    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_2.JPG</t>
+  </si>
+  <si>
+    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_3.JPG</t>
+  </si>
+  <si>
+    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_4.JPG</t>
+  </si>
+  <si>
+    <t>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_5.JPG</t>
   </si>
 </sst>
 </file>
@@ -1300,34 +1315,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="83" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="19" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="70.5703125" customWidth="1"/>
+    <col min="10" max="10" width="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="18" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1343,15 +1357,17 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>54</v>
@@ -1365,11 +1381,8 @@
       <c r="R1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1377,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(F2,G2)</f>
@@ -1388,32 +1401,32 @@
         <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE(L2, ". ", M2,"-",N2)</f>
+        <f>CONCATENATE(K2, ". ", L2,"-",M2)</f>
         <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="str">
-        <f>VLOOKUP(A2,$L$1:$S$31,4,0)</f>
+      <c r="J2" t="str">
+        <f>VLOOKUP(A2,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1SPt5-5-Eu5eLhNXVGMijMrIqagolFZ4i</v>
       </c>
-      <c r="L2" s="5">
+      <c r="K2" s="5">
         <v>1</v>
       </c>
+      <c r="L2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>59</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -1425,11 +1438,8 @@
       <c r="R2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1437,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="1">CONCATENATE(F3,G3)</f>
+        <f t="shared" ref="C3:E66" si="1">CONCATENATE(F3,G3)</f>
         <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn/img2.JPG</v>
       </c>
       <c r="F3" t="str">
@@ -1448,32 +1458,32 @@
         <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I31" si="2">CONCATENATE(L3, ". ", M3,"-",N3)</f>
+        <f t="shared" ref="I3:I31" si="2">CONCATENATE(K3, ". ", L3,"-",M3)</f>
         <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="str">
-        <f>VLOOKUP(A3,$L$1:$S$31,5,0)</f>
+      <c r="J3" t="str">
+        <f>VLOOKUP(A3,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1g08XkVrfOuc6Fx7YDp6eA6j14XZnv1Ck</v>
       </c>
-      <c r="L3" s="5">
+      <c r="K3" s="5">
         <v>2</v>
       </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="M3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P3" s="10" t="s">
@@ -1482,11 +1492,8 @@
       <c r="Q3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1494,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
@@ -1505,7 +1512,7 @@
         <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5">
         <v>3</v>
@@ -1514,30 +1521,27 @@
         <f t="shared" si="2"/>
         <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
       </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" t="str">
-        <f>VLOOKUP(A4,$L$1:$S$31,6,0)</f>
+      <c r="J4" t="str">
+        <f>VLOOKUP(A4,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1G_ygNQQ1GGmHk1AA8y7H5jowamzBUN6g</v>
       </c>
-      <c r="L4" s="5">
-        <v>3</v>
+      <c r="K4" s="5">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -1556,7 +1560,7 @@
         <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="5">
         <v>4</v>
@@ -1565,21 +1569,21 @@
         <f t="shared" si="2"/>
         <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="str">
-        <f>VLOOKUP(A5,$L$1:$S$31,7,0)</f>
+      <c r="J5" t="str">
+        <f>VLOOKUP(A5,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1P8mqWYHDDg3gYo65RSS8h8vNiY3DsHTr</v>
       </c>
-      <c r="L5" s="5">
+      <c r="K5" s="5">
         <v>4</v>
       </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="M5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>70</v>
@@ -1593,11 +1597,8 @@
       <c r="R5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
@@ -1616,7 +1617,7 @@
         <v>1. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="5">
         <v>5</v>
@@ -1625,21 +1626,21 @@
         <f t="shared" si="2"/>
         <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="str">
-        <f>VLOOKUP(A6,$L$1:$S$31,8,0)</f>
+      <c r="J6" t="str">
+        <f>VLOOKUP(A6,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=14bhLrXAcrHEU9DyzHabr4kwErBCvOZqw</v>
       </c>
-      <c r="L6" s="5">
+      <c r="K6" s="5">
         <v>5</v>
       </c>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="M6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>75</v>
@@ -1653,11 +1654,8 @@
       <c r="R6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1665,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -1676,7 +1674,7 @@
         <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5">
         <v>6</v>
@@ -1685,21 +1683,21 @@
         <f t="shared" si="2"/>
         <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" ref="K7:K38" si="3">VLOOKUP(A7,$L$1:$S$31,4,0)</f>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7" si="3">VLOOKUP(A7,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=11e4vQj953s1KGSkE2yeDnUf6t_OUcfOI</v>
       </c>
-      <c r="L7" s="5">
+      <c r="K7" s="5">
         <v>6</v>
       </c>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="M7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>80</v>
@@ -1713,11 +1711,8 @@
       <c r="R7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1725,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -1736,7 +1731,7 @@
         <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5">
         <v>7</v>
@@ -1745,21 +1740,21 @@
         <f t="shared" si="2"/>
         <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
       </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" ref="K8:K39" si="4">VLOOKUP(A8,$L$1:$S$31,5,0)</f>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8" si="4">VLOOKUP(A8,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1Gk5XFK-dObncE5ofYi6deeOr24v_9YsA</v>
       </c>
-      <c r="L8" s="5">
+      <c r="K8" s="5">
         <v>7</v>
       </c>
+      <c r="L8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="M8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="O8" s="10" t="s">
         <v>85</v>
@@ -1773,11 +1768,8 @@
       <c r="R8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1785,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -1796,7 +1788,7 @@
         <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5">
         <v>8</v>
@@ -1805,21 +1797,21 @@
         <f t="shared" si="2"/>
         <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" ref="K9:K40" si="5">VLOOKUP(A9,$L$1:$S$31,6,0)</f>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9" si="5">VLOOKUP(A9,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1ho3UAHmYl_v901oVcA7kUpzyilSk-LXw</v>
       </c>
-      <c r="L9" s="5">
+      <c r="K9" s="5">
         <v>8</v>
       </c>
+      <c r="L9" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>90</v>
@@ -1833,11 +1825,8 @@
       <c r="R9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1845,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -1856,7 +1845,7 @@
         <v>2. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5">
         <v>9</v>
@@ -1865,21 +1854,21 @@
         <f t="shared" si="2"/>
         <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" ref="K10:K41" si="6">VLOOKUP(A10,$L$1:$S$31,7,0)</f>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="6">VLOOKUP(A10,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1J-l29yz_Fbnb58X2YdTUYt2e9kPvP1nK</v>
       </c>
-      <c r="L10" s="5">
+      <c r="K10" s="5">
         <v>9</v>
       </c>
+      <c r="L10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="M10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>95</v>
@@ -1893,11 +1882,8 @@
       <c r="R10" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1905,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -1916,7 +1902,7 @@
         <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5">
         <v>10</v>
@@ -1925,21 +1911,21 @@
         <f t="shared" si="2"/>
         <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
       </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ref="K11:K42" si="7">VLOOKUP(A11,$L$1:$S$31,8,0)</f>
+      <c r="J11">
+        <f t="shared" ref="J11" si="7">VLOOKUP(A11,$K$1:$R$31,8,0)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="5">
+      <c r="K11" s="5">
         <v>10</v>
       </c>
+      <c r="L11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="M11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>100</v>
@@ -1947,11 +1933,8 @@
       <c r="P11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Q11" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1959,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -1970,7 +1953,7 @@
         <v>3. Kaloula pulchra Gray, 1831-ỄN ương</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5">
         <v>11</v>
@@ -1979,23 +1962,23 @@
         <f t="shared" si="2"/>
         <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" ref="K12:K43" si="8">VLOOKUP(A12,$L$1:$S$31,4,0)</f>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="8">VLOOKUP(A12,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=13SdgByNjDXlZm4rEp0qBmgNnQTqpjjff</v>
       </c>
-      <c r="L12" s="5">
+      <c r="K12" s="5">
         <v>11</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="M12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>103</v>
       </c>
       <c r="P12" s="10" t="s">
@@ -2004,11 +1987,8 @@
       <c r="Q12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="R12" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2016,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
@@ -2027,7 +2007,7 @@
         <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="5">
         <v>12</v>
@@ -2036,21 +2016,21 @@
         <f t="shared" si="2"/>
         <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" ref="K13:K44" si="9">VLOOKUP(A13,$L$1:$S$31,5,0)</f>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13" si="9">VLOOKUP(A13,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1CHHTR93V_xNb53pEwCd_axxOo3G85qum</v>
       </c>
-      <c r="L13" s="5">
+      <c r="K13" s="5">
         <v>12</v>
       </c>
+      <c r="L13" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>107</v>
@@ -2064,11 +2044,8 @@
       <c r="R13" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -2076,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -2087,7 +2064,7 @@
         <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="5">
         <v>13</v>
@@ -2096,21 +2073,21 @@
         <f t="shared" si="2"/>
         <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
       </c>
-      <c r="J14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" ref="K14:K45" si="10">VLOOKUP(A14,$L$1:$S$31,6,0)</f>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14" si="10">VLOOKUP(A14,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1kSxroGIm5vdaB95quJQ3CAPeWCev3KtE</v>
       </c>
-      <c r="L14" s="5">
+      <c r="K14" s="5">
         <v>13</v>
       </c>
+      <c r="L14" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="M14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>112</v>
@@ -2124,11 +2101,8 @@
       <c r="R14" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="S14" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -2136,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
@@ -2147,7 +2121,7 @@
         <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5">
         <v>14</v>
@@ -2156,21 +2130,21 @@
         <f t="shared" si="2"/>
         <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
       </c>
-      <c r="J15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" ref="K15:K46" si="11">VLOOKUP(A15,$L$1:$S$31,7,0)</f>
+      <c r="J15" t="str">
+        <f t="shared" ref="J15" si="11">VLOOKUP(A15,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1T28URxMeDGBxHtFZYvFAt7iHr81zyK0f</v>
       </c>
-      <c r="L15" s="5">
+      <c r="K15" s="5">
         <v>14</v>
       </c>
+      <c r="L15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="M15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>117</v>
@@ -2178,11 +2152,8 @@
       <c r="P15" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -2190,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
@@ -2201,30 +2172,30 @@
         <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="5">
         <v>15</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>15. Fejervarya sp.-Nhái cơm</v>
-      </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" ref="K16:K47" si="12">VLOOKUP(A16,$L$1:$S$31,8,0)</f>
+        <v>15. Fejervarya sp-Nhái cơm</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16" si="12">VLOOKUP(A16,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1VO50fyXU8VAbdi0o5DHsMEXpkLYbZp04</v>
       </c>
-      <c r="L16" s="5">
+      <c r="K16" s="5">
         <v>15</v>
       </c>
+      <c r="L16" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="M16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>120</v>
@@ -2238,11 +2209,8 @@
       <c r="R16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -2250,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
@@ -2261,7 +2229,7 @@
         <v>4. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="5">
         <v>16</v>
@@ -2270,21 +2238,21 @@
         <f t="shared" si="2"/>
         <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
       </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" ref="K17:K48" si="13">VLOOKUP(A17,$L$1:$S$31,4,0)</f>
+      <c r="J17" t="str">
+        <f t="shared" ref="J17" si="13">VLOOKUP(A17,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1dAspuOaa2rVuawgZGO2ZYLt7WlOqO8sW</v>
       </c>
-      <c r="L17" s="5">
+      <c r="K17" s="5">
         <v>16</v>
       </c>
+      <c r="L17" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="M17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>125</v>
@@ -2295,11 +2263,8 @@
       <c r="Q17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R17" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -2307,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
@@ -2318,7 +2283,7 @@
         <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="5">
         <v>17</v>
@@ -2327,21 +2292,21 @@
         <f t="shared" si="2"/>
         <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
       </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" ref="K18:K49" si="14">VLOOKUP(A18,$L$1:$S$31,5,0)</f>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18" si="14">VLOOKUP(A18,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=10lCRsK7vhMTtFm9v5sG6Kt1t1wZLi4du</v>
       </c>
-      <c r="L18" s="5">
+      <c r="K18" s="5">
         <v>17</v>
       </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="M18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>129</v>
@@ -2349,11 +2314,8 @@
       <c r="P18" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="Q18" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -2361,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
@@ -2372,7 +2334,7 @@
         <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="5">
         <v>18</v>
@@ -2381,21 +2343,21 @@
         <f t="shared" si="2"/>
         <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
       </c>
-      <c r="J19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" ref="K19:K50" si="15">VLOOKUP(A19,$L$1:$S$31,6,0)</f>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19" si="15">VLOOKUP(A19,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=14sIJhWFjZuh7PqdEWFsT7CDDgEl8FA9-</v>
       </c>
-      <c r="L19" s="5">
+      <c r="K19" s="5">
         <v>18</v>
       </c>
+      <c r="L19" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>132</v>
@@ -2403,11 +2365,8 @@
       <c r="P19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -2415,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -2426,7 +2385,7 @@
         <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="5">
         <v>19</v>
@@ -2435,30 +2394,27 @@
         <f t="shared" si="2"/>
         <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
       </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" ref="K20:K51" si="16">VLOOKUP(A20,$L$1:$S$31,7,0)</f>
+      <c r="J20" t="str">
+        <f t="shared" ref="J20" si="16">VLOOKUP(A20,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1C_Ctdntw2X6UjdvnzG0MFOW_K7ADo7xS</v>
       </c>
-      <c r="L20" s="5">
+      <c r="K20" s="5">
         <v>19</v>
       </c>
+      <c r="L20" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="M20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -2466,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
@@ -2477,7 +2433,7 @@
         <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="5">
         <v>20</v>
@@ -2486,21 +2442,21 @@
         <f t="shared" si="2"/>
         <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
-      <c r="J21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" ref="K21:K52" si="17">VLOOKUP(A21,$L$1:$S$31,8,0)</f>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21" si="17">VLOOKUP(A21,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1l6ika5QSYBj-vxcmok5wkfU6nwrsKltf</v>
       </c>
-      <c r="L21" s="5">
+      <c r="K21" s="5">
         <v>20</v>
       </c>
+      <c r="L21" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="M21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>137</v>
@@ -2514,11 +2470,8 @@
       <c r="R21" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -2526,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
@@ -2537,7 +2490,7 @@
         <v>5. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="5">
         <v>21</v>
@@ -2546,21 +2499,21 @@
         <f t="shared" si="2"/>
         <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
-      <c r="J22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" ref="K22:K53" si="18">VLOOKUP(A22,$L$1:$S$31,4,0)</f>
+      <c r="J22" t="str">
+        <f t="shared" ref="J22" si="18">VLOOKUP(A22,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1u-EnqYum36rkgofdJrBIanPmaMvufy2l</v>
       </c>
-      <c r="L22" s="5">
+      <c r="K22" s="5">
         <v>21</v>
       </c>
+      <c r="L22" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="M22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>142</v>
@@ -2574,11 +2527,8 @@
       <c r="R22" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -2586,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
@@ -2597,7 +2547,7 @@
         <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="5">
         <v>22</v>
@@ -2606,21 +2556,21 @@
         <f t="shared" si="2"/>
         <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
-      <c r="J23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" ref="K23:K54" si="19">VLOOKUP(A23,$L$1:$S$31,5,0)</f>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23" si="19">VLOOKUP(A23,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1gKYR9qHwrxOa-ziZC-5CkrxFWptlALso</v>
       </c>
-      <c r="L23" s="5">
+      <c r="K23" s="5">
         <v>22</v>
       </c>
+      <c r="L23" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="M23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="O23" s="10" t="s">
         <v>147</v>
@@ -2634,11 +2584,8 @@
       <c r="R23" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -2646,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
@@ -2657,7 +2604,7 @@
         <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="5">
         <v>23</v>
@@ -2666,21 +2613,21 @@
         <f t="shared" si="2"/>
         <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
       </c>
-      <c r="J24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" ref="K24:K55" si="20">VLOOKUP(A24,$L$1:$S$31,6,0)</f>
+      <c r="J24" t="str">
+        <f t="shared" ref="J24" si="20">VLOOKUP(A24,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1RI_M7FECV4d7bQhK8S6BzgJSVb5HVHM9</v>
       </c>
-      <c r="L24" s="5">
+      <c r="K24" s="5">
         <v>23</v>
       </c>
+      <c r="L24" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="M24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>152</v>
@@ -2694,11 +2641,8 @@
       <c r="R24" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="S24" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -2706,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
@@ -2717,7 +2661,7 @@
         <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="5">
         <v>24</v>
@@ -2726,21 +2670,21 @@
         <f t="shared" si="2"/>
         <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" ref="K25:K56" si="21">VLOOKUP(A25,$L$1:$S$31,7,0)</f>
+      <c r="J25" t="str">
+        <f t="shared" ref="J25" si="21">VLOOKUP(A25,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1R05SImE9fn6gob8sAE8OYUOTjtN_oJIQ</v>
       </c>
-      <c r="L25" s="5">
+      <c r="K25" s="5">
         <v>24</v>
       </c>
+      <c r="L25" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="M25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>157</v>
@@ -2754,11 +2698,8 @@
       <c r="R25" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="S25" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -2766,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
@@ -2777,7 +2718,7 @@
         <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="5">
         <v>25</v>
@@ -2786,21 +2727,21 @@
         <f t="shared" si="2"/>
         <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
-      <c r="J26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" ref="K26:K57" si="22">VLOOKUP(A26,$L$1:$S$31,8,0)</f>
+      <c r="J26" t="str">
+        <f t="shared" ref="J26" si="22">VLOOKUP(A26,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1witFgiWDofH95NguqHHEHqavvwq_1TCl</v>
       </c>
-      <c r="L26" s="5">
+      <c r="K26" s="5">
         <v>25</v>
       </c>
+      <c r="L26" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="M26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>162</v>
@@ -2814,11 +2755,8 @@
       <c r="R26" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="S26" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -2826,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
@@ -2837,7 +2775,7 @@
         <v>6. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="5">
         <v>26</v>
@@ -2846,21 +2784,21 @@
         <f t="shared" si="2"/>
         <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
       </c>
-      <c r="J27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" ref="K27:K58" si="23">VLOOKUP(A27,$L$1:$S$31,4,0)</f>
+      <c r="J27" t="str">
+        <f t="shared" ref="J27" si="23">VLOOKUP(A27,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1P7EV53D8yg3ZOLwaNKtRiQdPLzBSCait</v>
       </c>
-      <c r="L27" s="5">
+      <c r="K27" s="5">
         <v>26</v>
       </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="M27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>167</v>
@@ -2868,11 +2806,8 @@
       <c r="P27" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="Q27" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -2880,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
@@ -2891,7 +2826,7 @@
         <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="5">
         <v>27</v>
@@ -2900,21 +2835,21 @@
         <f t="shared" si="2"/>
         <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
       </c>
-      <c r="J28" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" ref="K28:K59" si="24">VLOOKUP(A28,$L$1:$S$31,5,0)</f>
+      <c r="J28" t="str">
+        <f t="shared" ref="J28" si="24">VLOOKUP(A28,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=190aqaXY26T7G0924gyfO9R28LCQqgx5E</v>
       </c>
-      <c r="L28" s="5">
+      <c r="K28" s="5">
         <v>27</v>
       </c>
+      <c r="L28" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>170</v>
@@ -2925,11 +2860,8 @@
       <c r="Q28" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R28" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -2937,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
@@ -2948,7 +2880,7 @@
         <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" s="5">
         <v>28</v>
@@ -2957,21 +2889,21 @@
         <f t="shared" si="2"/>
         <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
       </c>
-      <c r="J29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" ref="K29:K60" si="25">VLOOKUP(A29,$L$1:$S$31,6,0)</f>
+      <c r="J29" t="str">
+        <f t="shared" ref="J29" si="25">VLOOKUP(A29,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1y8gsVPs_fq2M8Dol_xg1YZmhegYcdEwj</v>
       </c>
-      <c r="L29" s="5">
+      <c r="K29" s="5">
         <v>28</v>
       </c>
+      <c r="L29" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="O29" s="10" t="s">
         <v>174</v>
@@ -2985,11 +2917,8 @@
       <c r="R29" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="S29" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -2997,7 +2926,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
@@ -3008,7 +2937,7 @@
         <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="5">
         <v>29</v>
@@ -3017,21 +2946,21 @@
         <f t="shared" si="2"/>
         <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
       </c>
-      <c r="J30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:K61" si="26">VLOOKUP(A30,$L$1:$S$31,7,0)</f>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30" si="26">VLOOKUP(A30,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1Rc6JVKR5of48kUnSn4dvxD2YBKuz_Qax</v>
       </c>
-      <c r="L30" s="5">
+      <c r="K30" s="5">
         <v>29</v>
       </c>
+      <c r="L30" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="M30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>179</v>
@@ -3045,11 +2974,8 @@
       <c r="R30" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="S30" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -3057,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
@@ -3068,7 +2994,7 @@
         <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="5">
         <v>30</v>
@@ -3077,21 +3003,21 @@
         <f t="shared" si="2"/>
         <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
       </c>
-      <c r="J31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" ref="K31:K62" si="27">VLOOKUP(A31,$L$1:$S$31,8,0)</f>
+      <c r="J31" t="str">
+        <f t="shared" ref="J31" si="27">VLOOKUP(A31,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1fBrHI93hTLVUyEi5NvPGi7Su8SeHnrlI</v>
       </c>
-      <c r="L31" s="5">
+      <c r="K31" s="5">
         <v>30</v>
       </c>
+      <c r="L31" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="M31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="O31" s="10" t="s">
         <v>184</v>
@@ -3105,11 +3031,8 @@
       <c r="R31" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="S31" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -3117,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
@@ -3128,17 +3051,14 @@
         <v>7. Calotes versicolor (Daudin, 1802)-Nhông xanh, Nhông hàng rào, Kì nhông</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" ref="K32:K63" si="28">VLOOKUP(A32,$L$1:$S$31,4,0)</f>
+        <v>52</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" ref="J32" si="28">VLOOKUP(A32,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1yU01M0KhxmBINIkpYgPYr0-FdKHkHr4V</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -3146,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
@@ -3157,17 +3077,14 @@
         <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" ref="K33:K64" si="29">VLOOKUP(A33,$L$1:$S$31,5,0)</f>
+        <v>48</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ref="J33" si="29">VLOOKUP(A33,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1nnFbJiWrhpdt-knfDOAYGKxz-tLO3scw</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -3175,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
@@ -3186,17 +3103,14 @@
         <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" ref="K34:K65" si="31">VLOOKUP(A34,$L$1:$S$31,6,0)</f>
+        <v>49</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ref="J34" si="31">VLOOKUP(A34,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1iXwwtDoJBcLKJArg7H6I8VxaPl09ujYt</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -3204,7 +3118,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
@@ -3215,17 +3129,14 @@
         <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" ref="K35:K66" si="32">VLOOKUP(A35,$L$1:$S$31,7,0)</f>
+        <v>50</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ref="J35" si="32">VLOOKUP(A35,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1XSKok5YNj-mjm68z4-Badrf5N-gWOTfG</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -3233,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="1"/>
@@ -3244,17 +3155,14 @@
         <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" ref="K36:K67" si="33">VLOOKUP(A36,$L$1:$S$31,8,0)</f>
+        <v>51</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ref="J36" si="33">VLOOKUP(A36,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1K06DEe2wXMymHv9Nz1Bf4Sfh0pi1dFx-</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -3262,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="1"/>
@@ -3273,17 +3181,14 @@
         <v>8. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" ref="K37:K68" si="34">VLOOKUP(A37,$L$1:$S$31,4,0)</f>
+        <v>52</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" ref="J37" si="34">VLOOKUP(A37,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1dEO2xt0jbV5p4KXXtyIjQ0akIjgpLarq</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -3291,7 +3196,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
@@ -3302,17 +3207,14 @@
         <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" ref="K38:K69" si="35">VLOOKUP(A38,$L$1:$S$31,5,0)</f>
+        <v>48</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ref="J38" si="35">VLOOKUP(A38,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1W7VhA1EtUeXw0-xz5ZVA0GmNyOnHaqhK</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -3320,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
@@ -3331,17 +3233,14 @@
         <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" ref="K39:K70" si="36">VLOOKUP(A39,$L$1:$S$31,6,0)</f>
+        <v>49</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ref="J39" si="36">VLOOKUP(A39,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1uFDKV9_aA4GK4wQaO3Ja7sw2SIm1HKQR</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>9</v>
       </c>
@@ -3349,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
@@ -3360,17 +3259,14 @@
         <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" ref="K40:K71" si="37">VLOOKUP(A40,$L$1:$S$31,7,0)</f>
+        <v>50</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ref="J40" si="37">VLOOKUP(A40,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1dMNhLBobuf6udZnR9OSpzdnilPRZaBXS</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>9</v>
       </c>
@@ -3378,7 +3274,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
@@ -3389,17 +3285,14 @@
         <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" ref="K41:K72" si="38">VLOOKUP(A41,$L$1:$S$31,8,0)</f>
+        <v>51</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ref="J41" si="38">VLOOKUP(A41,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1b6P0ANW6Prltr6lDAkChBN_2t-Or5v2n</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>9</v>
       </c>
@@ -3407,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
@@ -3418,17 +3311,14 @@
         <v>9. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" ref="K42:K73" si="39">VLOOKUP(A42,$L$1:$S$31,4,0)</f>
+        <v>52</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42" si="39">VLOOKUP(A42,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1Pv4QpQ-XGXYkW3ledU52ga8n340JEecS</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>10</v>
       </c>
@@ -3436,7 +3326,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
@@ -3447,17 +3337,14 @@
         <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" ref="K43:K74" si="40">VLOOKUP(A43,$L$1:$S$31,5,0)</f>
+        <v>48</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" ref="J43" si="40">VLOOKUP(A43,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=19imjQ05jJmwpL4m1saUEavpVIiB-aMkU</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>10</v>
       </c>
@@ -3465,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
@@ -3476,17 +3363,14 @@
         <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" ref="K44:K75" si="41">VLOOKUP(A44,$L$1:$S$31,6,0)</f>
+        <v>49</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" ref="J44" si="41">VLOOKUP(A44,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1mr6-En-h1ef9_0z9SEzC2zWSu7ynN7Px</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>10</v>
       </c>
@@ -3494,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
@@ -3505,17 +3389,14 @@
         <v>10. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
-      </c>
-      <c r="J45" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45">
-        <f t="shared" ref="K45:K76" si="42">VLOOKUP(A45,$L$1:$S$31,7,0)</f>
+        <v>50</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45" si="42">VLOOKUP(A45,$K$1:$R$31,7,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -3523,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
@@ -3534,17 +3415,14 @@
         <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" t="s">
-        <v>53</v>
-      </c>
-      <c r="K46">
-        <f t="shared" ref="K46:K77" si="43">VLOOKUP(A46,$L$1:$S$31,8,0)</f>
+        <v>48</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46" si="43">VLOOKUP(A46,$K$1:$R$31,8,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>11</v>
       </c>
@@ -3552,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
@@ -3563,17 +3441,14 @@
         <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" t="s">
         <v>49</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" ref="K47:K78" si="44">VLOOKUP(A47,$L$1:$S$31,4,0)</f>
+      <c r="J47" t="str">
+        <f t="shared" ref="J47" si="44">VLOOKUP(A47,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1ouKmdg13X3Gt9LvL2LYzzlp98s8SKlSP</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>11</v>
       </c>
@@ -3581,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="1"/>
@@ -3592,17 +3467,14 @@
         <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" t="s">
         <v>50</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" ref="K48:K79" si="45">VLOOKUP(A48,$L$1:$S$31,5,0)</f>
+      <c r="J48" t="str">
+        <f t="shared" ref="J48" si="45">VLOOKUP(A48,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1UaZURoURmTbbfJW3N02YenbPt97Rjgzf</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>11</v>
       </c>
@@ -3610,7 +3482,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
@@ -3621,17 +3493,14 @@
         <v>11. Duttaphrynus melanostictus (Schneider, 1799)-Cóc nhà</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" t="s">
         <v>51</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" ref="K49:K80" si="46">VLOOKUP(A49,$L$1:$S$31,6,0)</f>
+      <c r="J49" t="str">
+        <f t="shared" ref="J49" si="46">VLOOKUP(A49,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=13JkwOmJV_JPUeTExsSO142p29gIgo412</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -3639,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
@@ -3650,17 +3519,14 @@
         <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" ref="K50:K81" si="47">VLOOKUP(A50,$L$1:$S$31,7,0)</f>
+        <v>48</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" ref="J50" si="47">VLOOKUP(A50,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1GlHiMXevmRyCBRH69s4eePdxtY0yeUNF</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>12</v>
       </c>
@@ -3668,7 +3534,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
@@ -3679,17 +3545,14 @@
         <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
-      </c>
-      <c r="J51" t="s">
-        <v>53</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" ref="K51:K82" si="48">VLOOKUP(A51,$L$1:$S$31,8,0)</f>
+        <v>49</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" ref="J51" si="48">VLOOKUP(A51,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1pSKpl2Bm9bP9FUEe72dvry9X9Kvy_ns7</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>12</v>
       </c>
@@ -3697,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
@@ -3708,17 +3571,14 @@
         <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G52" t="s">
-        <v>51</v>
-      </c>
-      <c r="J52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" ref="K52:K83" si="49">VLOOKUP(A52,$L$1:$S$31,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" ref="J52" si="49">VLOOKUP(A52,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1w1Fz6UOGglW9q-Noy3eg7oKfJshRGUHr</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>12</v>
       </c>
@@ -3726,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
@@ -3737,17 +3597,14 @@
         <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J53" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" ref="K53:K84" si="50">VLOOKUP(A53,$L$1:$S$31,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" ref="J53" si="50">VLOOKUP(A53,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1pW1Nc0NHa9bAIu2f9mQCeeSTVODE9GPK</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>12</v>
       </c>
@@ -3755,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
@@ -3766,17 +3623,14 @@
         <v>12. Ichthyophis nguyenorum Nishikawa, Matsui, and Orlov, 2012-Ếch giun nguyễn</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" t="s">
-        <v>51</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" ref="K54:K85" si="51">VLOOKUP(A54,$L$1:$S$31,6,0)</f>
+        <v>52</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" ref="J54" si="51">VLOOKUP(A54,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1Gb9g1GIkW7AuNeJ09P8Ko2Kh3eeMpoHF</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>13</v>
       </c>
@@ -3784,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
@@ -3795,17 +3649,14 @@
         <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J55" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" ref="K55:K86" si="52">VLOOKUP(A55,$L$1:$S$31,7,0)</f>
+        <v>48</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" ref="J55" si="52">VLOOKUP(A55,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1ahXZxegL8tAY5LLq7M2Oa6778AvUuU6k</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>13</v>
       </c>
@@ -3813,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
@@ -3824,17 +3675,14 @@
         <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J56" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" t="str">
-        <f t="shared" ref="K56:K87" si="53">VLOOKUP(A56,$L$1:$S$31,8,0)</f>
+        <v>49</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" ref="J56" si="53">VLOOKUP(A56,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1rY2dEgfC7iTLEfAzG-lpskx-UYgo8zZz</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>13</v>
       </c>
@@ -3842,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
@@ -3853,17 +3701,14 @@
         <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
-      </c>
-      <c r="J57" t="s">
-        <v>49</v>
-      </c>
-      <c r="K57" t="str">
-        <f t="shared" ref="K57:K88" si="54">VLOOKUP(A57,$L$1:$S$31,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" ref="J57" si="54">VLOOKUP(A57,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=14vN4pz76NYcP3dk-gogAWCQdcJC-OHnQ</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>13</v>
       </c>
@@ -3871,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
@@ -3882,17 +3727,14 @@
         <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
       </c>
       <c r="G58" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" t="s">
-        <v>50</v>
-      </c>
-      <c r="K58" t="str">
-        <f t="shared" ref="K58:K89" si="55">VLOOKUP(A58,$L$1:$S$31,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" ref="J58" si="55">VLOOKUP(A58,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=11bZoCZofkAdAFC1NRBKsE2F7FH3dzdCc</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>13</v>
       </c>
@@ -3900,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
@@ -3911,17 +3753,14 @@
         <v>13. Fejervarya limnocharis (Gravenhorst, 1829)-Nhái Ngóe</v>
       </c>
       <c r="G59" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59" t="str">
-        <f t="shared" ref="K59:K90" si="56">VLOOKUP(A59,$L$1:$S$31,6,0)</f>
+        <v>52</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" ref="J59" si="56">VLOOKUP(A59,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=18cDrgsu9etfsa2yVIjoHryVqb_POucGZ</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>14</v>
       </c>
@@ -3929,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
@@ -3940,17 +3779,14 @@
         <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
-      </c>
-      <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60">
-        <f t="shared" ref="K60:K91" si="57">VLOOKUP(A60,$L$1:$S$31,7,0)</f>
+        <v>48</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60" si="57">VLOOKUP(A60,$K$1:$R$31,7,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>14</v>
       </c>
@@ -3958,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -3969,17 +3805,14 @@
         <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
-      </c>
-      <c r="J61" t="s">
-        <v>53</v>
-      </c>
-      <c r="K61">
-        <f t="shared" ref="K61:K92" si="58">VLOOKUP(A61,$L$1:$S$31,8,0)</f>
+        <v>49</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61" si="58">VLOOKUP(A61,$K$1:$R$31,8,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -3987,7 +3820,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -3998,17 +3831,14 @@
         <v>14. Fejervarya cancrivora (Gravenhorst, 1829)-Ếch cua</v>
       </c>
       <c r="G62" t="s">
-        <v>51</v>
-      </c>
-      <c r="J62" t="s">
-        <v>49</v>
-      </c>
-      <c r="K62" t="str">
-        <f t="shared" ref="K62:K93" si="59">VLOOKUP(A62,$L$1:$S$31,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" ref="J62" si="59">VLOOKUP(A62,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1KDIOjdWe0WWtjnKOwiOjJQ8ZYMD6YoVT</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -4016,28 +3846,25 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
-        <v>15. Fejervarya sp.-Nhái cơm/img1.JPG</v>
+        <v>15. Fejervarya sp-Nhái cơm/Img_1.JPG</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="30"/>
-        <v>15. Fejervarya sp.-Nhái cơm</v>
+        <v>15. Fejervarya sp-Nhái cơm</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
-      </c>
-      <c r="J63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" ref="K63:K94" si="60">VLOOKUP(A63,$L$1:$S$31,5,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" ref="J63" si="60">VLOOKUP(A63,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1xdlBaS3stP-cjsUfqEjn0cm6apbiMpLi</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>15</v>
       </c>
@@ -4045,28 +3872,25 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
-        <v>15. Fejervarya sp.-Nhái cơm/img2.JPG</v>
+        <v>15. Fejervarya sp-Nhái cơm/Img_2.JPG</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="30"/>
-        <v>15. Fejervarya sp.-Nhái cơm</v>
+        <v>15. Fejervarya sp-Nhái cơm</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
-      </c>
-      <c r="J64" t="s">
-        <v>51</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" ref="K64:K95" si="61">VLOOKUP(A64,$L$1:$S$31,6,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" ref="J64" si="61">VLOOKUP(A64,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1QpeM3aeXKcl0pW2yC784tBOgVAvJ77iz</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>15</v>
       </c>
@@ -4074,28 +3898,25 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
-        <v>15. Fejervarya sp.-Nhái cơm/img3.JPG</v>
+        <v>15. Fejervarya sp-Nhái cơm/Img_3.JPG</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="30"/>
-        <v>15. Fejervarya sp.-Nhái cơm</v>
+        <v>15. Fejervarya sp-Nhái cơm</v>
       </c>
       <c r="G65" t="s">
-        <v>51</v>
-      </c>
-      <c r="J65" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" t="str">
-        <f t="shared" ref="K65:K96" si="62">VLOOKUP(A65,$L$1:$S$31,7,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" ref="J65" si="62">VLOOKUP(A65,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1y7jYDzTRl7UAM7UL5gRI3Wsu6LgS0X9G</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -4103,28 +3924,25 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
-        <v>15. Fejervarya sp.-Nhái cơm/img4.JPG</v>
+        <v>15. Fejervarya sp-Nhái cơm/Img_4.JPG</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ref="F66:F97" si="63">VLOOKUP(A66,$H$1:$I$31,2,0)</f>
-        <v>15. Fejervarya sp.-Nhái cơm</v>
+        <v>15. Fejervarya sp-Nhái cơm</v>
       </c>
       <c r="G66" t="s">
-        <v>52</v>
-      </c>
-      <c r="J66" t="s">
-        <v>53</v>
-      </c>
-      <c r="K66" t="str">
-        <f t="shared" ref="K66:K97" si="64">VLOOKUP(A66,$L$1:$S$31,8,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66" si="64">VLOOKUP(A66,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=118lLAeCbOSKtPiWrlv5UsQwZe_vmGKr7</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>15</v>
       </c>
@@ -4132,28 +3950,25 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="65">CONCATENATE(F67,G67)</f>
-        <v>15. Fejervarya sp.-Nhái cơm/img5.JPG</v>
+        <f t="shared" ref="C67:E130" si="65">CONCATENATE(F67,G67)</f>
+        <v>15. Fejervarya sp-Nhái cơm/Img_5.JPG</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="63"/>
-        <v>15. Fejervarya sp.-Nhái cơm</v>
+        <v>15. Fejervarya sp-Nhái cơm</v>
       </c>
       <c r="G67" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67" t="str">
-        <f t="shared" ref="K67:K98" si="66">VLOOKUP(A67,$L$1:$S$31,4,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67" si="66">VLOOKUP(A67,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1KhdSBs0QhUTP4pp0mbAobci_BfPXOFV7</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>16</v>
       </c>
@@ -4161,28 +3976,25 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="65"/>
-        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/img1.JPG</v>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/Img_1.JPG</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="63"/>
         <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
-      </c>
-      <c r="J68" t="s">
-        <v>50</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" ref="K68:K99" si="67">VLOOKUP(A68,$L$1:$S$31,5,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68" si="67">VLOOKUP(A68,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1Q-1PbAvRUkffuLy1oltdCRTtA6K2Ar38</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>16</v>
       </c>
@@ -4190,28 +4002,25 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="65"/>
-        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/img2.JPG</v>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/Img_2.JPG</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="63"/>
         <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
-      </c>
-      <c r="J69" t="s">
-        <v>51</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" ref="K69:K100" si="68">VLOOKUP(A69,$L$1:$S$31,6,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" ref="J69" si="68">VLOOKUP(A69,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1N_nQxYPGI-iO8SLnWKFs83ak1shRsgnV</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>16</v>
       </c>
@@ -4219,28 +4028,25 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="65"/>
-        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/img3.JPG</v>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/Img_3.JPG</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="63"/>
         <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
-      </c>
-      <c r="J70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" ref="K70:K101" si="69">VLOOKUP(A70,$L$1:$S$31,7,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" ref="J70" si="69">VLOOKUP(A70,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1foxg6ZqxAE8HLHPy9qyhGXV3LdqDztnV</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>16</v>
       </c>
@@ -4248,28 +4054,25 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="65"/>
-        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/img4.JPG</v>
+        <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng/Img_4.JPG</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="63"/>
         <v>16. Hoplobatrachus rugulosus (Wiegmann, 1834)-Ếch đồng</v>
       </c>
       <c r="G71" t="s">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s">
-        <v>53</v>
-      </c>
-      <c r="K71">
-        <f t="shared" ref="K71:K102" si="70">VLOOKUP(A71,$L$1:$S$31,8,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71" si="70">VLOOKUP(A71,$K$1:$R$31,8,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>17</v>
       </c>
@@ -4277,28 +4080,25 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="65"/>
-        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/img1.JPG</v>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/Img_1.JPG</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="63"/>
         <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
-      </c>
-      <c r="J72" t="s">
-        <v>49</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" ref="K72:K103" si="71">VLOOKUP(A72,$L$1:$S$31,4,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" ref="J72" si="71">VLOOKUP(A72,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1WIFOpTgSWWclAUoCv-t4pPOwytQ7-bfQ</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>17</v>
       </c>
@@ -4306,28 +4106,25 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="65"/>
-        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/img2.JPG</v>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/Img_2.JPG</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="63"/>
         <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
       </c>
       <c r="G73" t="s">
-        <v>50</v>
-      </c>
-      <c r="J73" t="s">
-        <v>50</v>
-      </c>
-      <c r="K73" t="str">
-        <f t="shared" ref="K73:K104" si="72">VLOOKUP(A73,$L$1:$S$31,5,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" ref="J73" si="72">VLOOKUP(A73,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1dby2whsj8oinnjmIzcII_5McCItYg2MP</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>17</v>
       </c>
@@ -4335,28 +4132,25 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="65"/>
-        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/img3.JPG</v>
+        <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần/Img_3.JPG</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="63"/>
         <v>17. Occidozyga lima (Gravenhorst, 1829)-Cóc nước sần</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
-      </c>
-      <c r="J74" t="s">
-        <v>51</v>
-      </c>
-      <c r="K74" t="str">
-        <f t="shared" ref="K74:K105" si="73">VLOOKUP(A74,$L$1:$S$31,6,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" ref="J74" si="73">VLOOKUP(A74,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1ATl6DfttZJYHmhSke6pztgIHlEJMpz0R</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>18</v>
       </c>
@@ -4364,28 +4158,25 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="65"/>
-        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/img1.JPG</v>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/Img_1.JPG</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="63"/>
         <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
-      </c>
-      <c r="J75" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75">
-        <f t="shared" ref="K75:K106" si="74">VLOOKUP(A75,$L$1:$S$31,7,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75" si="74">VLOOKUP(A75,$K$1:$R$31,7,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>18</v>
       </c>
@@ -4393,28 +4184,25 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="65"/>
-        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/img2.JPG</v>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/Img_2.JPG</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="63"/>
         <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
-      </c>
-      <c r="J76" t="s">
-        <v>53</v>
-      </c>
-      <c r="K76">
-        <f t="shared" ref="K76:K107" si="75">VLOOKUP(A76,$L$1:$S$31,8,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76" si="75">VLOOKUP(A76,$K$1:$R$31,8,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>18</v>
       </c>
@@ -4422,28 +4210,25 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="65"/>
-        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/img3.JPG</v>
+        <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten/Img_3.JPG</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="63"/>
         <v>18. Occidozyga martensii (Peters, 1867)-Cóc nước marten</v>
       </c>
       <c r="G77" t="s">
-        <v>51</v>
-      </c>
-      <c r="J77" t="s">
-        <v>49</v>
-      </c>
-      <c r="K77" t="str">
-        <f t="shared" ref="K77:K108" si="76">VLOOKUP(A77,$L$1:$S$31,4,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" ref="J77" si="76">VLOOKUP(A77,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=17RdKj0wtBxz_4QmV89W9CTNwDU90hUSh</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>19</v>
       </c>
@@ -4451,28 +4236,25 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="65"/>
-        <v>19. Kaloula pulchra Gray, 1831-Ễn ương/img1.JPG</v>
+        <v>19. Kaloula pulchra Gray, 1831-Ễn ương/Img_1.JPG</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="63"/>
         <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
       </c>
       <c r="G78" t="s">
-        <v>49</v>
-      </c>
-      <c r="J78" t="s">
-        <v>50</v>
-      </c>
-      <c r="K78" t="str">
-        <f t="shared" ref="K78:K109" si="77">VLOOKUP(A78,$L$1:$S$31,5,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" ref="J78" si="77">VLOOKUP(A78,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1jSCBUb3ZV76BDmGYPmNIwq6Ajl1RvJt5</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>19</v>
       </c>
@@ -4480,28 +4262,25 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="65"/>
-        <v>19. Kaloula pulchra Gray, 1831-Ễn ương/img2.JPG</v>
+        <v>19. Kaloula pulchra Gray, 1831-Ễn ương/Img_2.JPG</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="63"/>
         <v>19. Kaloula pulchra Gray, 1831-Ễn ương</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
-      </c>
-      <c r="J79" t="s">
-        <v>51</v>
-      </c>
-      <c r="K79">
-        <f t="shared" ref="K79:K110" si="78">VLOOKUP(A79,$L$1:$S$31,6,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79" si="78">VLOOKUP(A79,$K$1:$R$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>20</v>
       </c>
@@ -4509,28 +4288,25 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="65"/>
-        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img1.JPG</v>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_1.JPG</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="63"/>
         <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G80" t="s">
-        <v>49</v>
-      </c>
-      <c r="J80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K80" t="str">
-        <f t="shared" ref="K80:K111" si="79">VLOOKUP(A80,$L$1:$S$31,7,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" ref="J80" si="79">VLOOKUP(A80,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1CTYH35rff_Zh20EwgAxEzv-mCBXraRtR</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>20</v>
       </c>
@@ -4538,28 +4314,25 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="65"/>
-        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img2.JPG</v>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_2.JPG</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="63"/>
         <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G81" t="s">
-        <v>50</v>
-      </c>
-      <c r="J81" t="s">
-        <v>53</v>
-      </c>
-      <c r="K81" t="str">
-        <f t="shared" ref="K81:K112" si="80">VLOOKUP(A81,$L$1:$S$31,8,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" ref="J81" si="80">VLOOKUP(A81,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1-Adkb-UzijLfezGYifaJ3q41S6p1L0IF</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>20</v>
       </c>
@@ -4567,28 +4340,25 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="65"/>
-        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img3.JPG</v>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_3.JPG</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="63"/>
         <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
-      </c>
-      <c r="J82" t="s">
-        <v>49</v>
-      </c>
-      <c r="K82" t="str">
-        <f t="shared" ref="K82:K113" si="81">VLOOKUP(A82,$L$1:$S$31,4,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" ref="J82" si="81">VLOOKUP(A82,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1vpmtlaFYXaAmxdgm3C54Ii3TEj_uo3mK</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>20</v>
       </c>
@@ -4596,28 +4366,25 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="65"/>
-        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img4.JPG</v>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_4.JPG</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="63"/>
         <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G83" t="s">
-        <v>52</v>
-      </c>
-      <c r="J83" t="s">
-        <v>50</v>
-      </c>
-      <c r="K83" t="str">
-        <f t="shared" ref="K83:K114" si="82">VLOOKUP(A83,$L$1:$S$31,5,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" ref="J83" si="82">VLOOKUP(A83,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1YlYwKK3K3jlSv9OUk04OZaTQ2tcuo1ON</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -4625,28 +4392,25 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="65"/>
-        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/img5.JPG</v>
+        <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon/Img_5.JPG</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="63"/>
         <v>20. Microhyla heymonsii Vogt, 1911-Nhái bầu heymon</v>
       </c>
       <c r="G84" t="s">
-        <v>53</v>
-      </c>
-      <c r="J84" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84" t="str">
-        <f t="shared" ref="K84:K115" si="83">VLOOKUP(A84,$L$1:$S$31,6,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" ref="J84" si="83">VLOOKUP(A84,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1uoUEAL4IYLpLfv-vtTsy1bvO-QdzNLN7</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -4654,28 +4418,25 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="65"/>
-        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img1.JPG</v>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_1.JPG</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="63"/>
         <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G85" t="s">
-        <v>49</v>
-      </c>
-      <c r="J85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K85" t="str">
-        <f t="shared" ref="K85:K116" si="84">VLOOKUP(A85,$L$1:$S$31,7,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" ref="J85" si="84">VLOOKUP(A85,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1jFzrqSHNm4KseQqM9Clr1BdC85c5ovG9</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>21</v>
       </c>
@@ -4683,28 +4444,25 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="65"/>
-        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img2.JPG</v>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_2.JPG</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="63"/>
         <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G86" t="s">
-        <v>50</v>
-      </c>
-      <c r="J86" t="s">
-        <v>53</v>
-      </c>
-      <c r="K86" t="str">
-        <f t="shared" ref="K86:K117" si="85">VLOOKUP(A86,$L$1:$S$31,8,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" ref="J86" si="85">VLOOKUP(A86,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1zLiyaJASoCvOe3uxL3_tZyxy5BeYu8hG</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>21</v>
       </c>
@@ -4712,28 +4470,25 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="65"/>
-        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img3.JPG</v>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_3.JPG</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="63"/>
         <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J87" t="s">
-        <v>49</v>
-      </c>
-      <c r="K87" t="str">
-        <f t="shared" ref="K87:K118" si="86">VLOOKUP(A87,$L$1:$S$31,4,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" ref="J87" si="86">VLOOKUP(A87,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1M1iJZ7xcKWrqhwrexn_Od2R-qabF7EWB</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>21</v>
       </c>
@@ -4741,28 +4496,25 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="65"/>
-        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img4.JPG</v>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_4.JPG</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="63"/>
         <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G88" t="s">
-        <v>52</v>
-      </c>
-      <c r="J88" t="s">
-        <v>50</v>
-      </c>
-      <c r="K88" t="str">
-        <f t="shared" ref="K88:K119" si="87">VLOOKUP(A88,$L$1:$S$31,5,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" ref="J88" si="87">VLOOKUP(A88,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1UU0PQVUmkNY3UIT_XPWih4dHWsSno6AY</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>21</v>
       </c>
@@ -4770,28 +4522,25 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="65"/>
-        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/img5.JPG</v>
+        <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh/Img_5.JPG</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="63"/>
         <v>21. Hylarana erythraea (Schlegel, 1837)-Chàng xanh</v>
       </c>
       <c r="G89" t="s">
-        <v>53</v>
-      </c>
-      <c r="J89" t="s">
-        <v>51</v>
-      </c>
-      <c r="K89" t="str">
-        <f t="shared" ref="K89:K120" si="88">VLOOKUP(A89,$L$1:$S$31,6,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" ref="J89" si="88">VLOOKUP(A89,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1XZ4UafzUsZVURbhWYn8kFYQkFN-Xzw2T</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>22</v>
       </c>
@@ -4799,28 +4548,25 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="65"/>
-        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img1.JPG</v>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_1.JPG</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="63"/>
         <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G90" t="s">
-        <v>49</v>
-      </c>
-      <c r="J90" t="s">
-        <v>52</v>
-      </c>
-      <c r="K90" t="str">
-        <f t="shared" ref="K90:K121" si="89">VLOOKUP(A90,$L$1:$S$31,7,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" ref="J90" si="89">VLOOKUP(A90,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1coreid3G4uQ0ML6tP3Gz_ZKfca0ej9dY</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>22</v>
       </c>
@@ -4828,28 +4574,25 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="65"/>
-        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img2.JPG</v>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_2.JPG</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="63"/>
         <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G91" t="s">
-        <v>50</v>
-      </c>
-      <c r="J91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K91" t="str">
-        <f t="shared" ref="K91:K122" si="90">VLOOKUP(A91,$L$1:$S$31,8,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" ref="J91" si="90">VLOOKUP(A91,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1AQ1HkG_xGQUTjyOn0F00CrZh3ZcDdTy9</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>22</v>
       </c>
@@ -4857,28 +4600,25 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="65"/>
-        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img3.JPG</v>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_3.JPG</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="63"/>
         <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G92" t="s">
-        <v>51</v>
-      </c>
-      <c r="J92" t="s">
-        <v>49</v>
-      </c>
-      <c r="K92" t="str">
-        <f t="shared" ref="K92:K123" si="91">VLOOKUP(A92,$L$1:$S$31,4,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" ref="J92" si="91">VLOOKUP(A92,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1SgYKmc-B_-wrXB36WDCJ4YjyeaBfG5ki</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>22</v>
       </c>
@@ -4886,28 +4626,25 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="65"/>
-        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img4.JPG</v>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_4.JPG</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="63"/>
         <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G93" t="s">
-        <v>52</v>
-      </c>
-      <c r="J93" t="s">
-        <v>50</v>
-      </c>
-      <c r="K93" t="str">
-        <f t="shared" ref="K93:K124" si="92">VLOOKUP(A93,$L$1:$S$31,5,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" ref="J93" si="92">VLOOKUP(A93,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1ukCU2ghJs06SE_HaotSPCz9cN11mXMJO</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>22</v>
       </c>
@@ -4915,28 +4652,25 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="65"/>
-        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/img5.JPG</v>
+        <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng/Img_5.JPG</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="63"/>
         <v>22. Polypedates megacephalus Hallowell, 1861-Ếch cây mép trắng</v>
       </c>
       <c r="G94" t="s">
-        <v>53</v>
-      </c>
-      <c r="J94" t="s">
-        <v>51</v>
-      </c>
-      <c r="K94" t="str">
-        <f t="shared" ref="K94:K125" si="93">VLOOKUP(A94,$L$1:$S$31,6,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" ref="J94" si="93">VLOOKUP(A94,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1nTcuqCy7ywFdXs8yfpugmjXEsPWp9Uqa</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>23</v>
       </c>
@@ -4944,28 +4678,25 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="65"/>
-        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img1.JPG</v>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_1.JPG</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="63"/>
         <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
       </c>
       <c r="G95" t="s">
-        <v>49</v>
-      </c>
-      <c r="J95" t="s">
-        <v>52</v>
-      </c>
-      <c r="K95" t="str">
-        <f t="shared" ref="K95:K126" si="94">VLOOKUP(A95,$L$1:$S$31,7,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" ref="J95" si="94">VLOOKUP(A95,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1rtf2vw22gsw6r-X1rk3KBZWEZioqb3ym</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>23</v>
       </c>
@@ -4973,28 +4704,25 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="65"/>
-        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img2.JPG</v>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_2.JPG</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="63"/>
         <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
       </c>
       <c r="G96" t="s">
-        <v>50</v>
-      </c>
-      <c r="J96" t="s">
-        <v>53</v>
-      </c>
-      <c r="K96" t="str">
-        <f t="shared" ref="K96:K127" si="95">VLOOKUP(A96,$L$1:$S$31,8,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" ref="J96" si="95">VLOOKUP(A96,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1MxLrhThqJ7JEWQZHZrGv5nLqx6bCUl8G</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>23</v>
       </c>
@@ -5002,28 +4730,25 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="65"/>
-        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img3.JPG</v>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_3.JPG</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="63"/>
         <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
       </c>
       <c r="G97" t="s">
-        <v>51</v>
-      </c>
-      <c r="J97" t="s">
-        <v>49</v>
-      </c>
-      <c r="K97" t="str">
-        <f t="shared" ref="K97:K128" si="96">VLOOKUP(A97,$L$1:$S$31,4,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" ref="J97" si="96">VLOOKUP(A97,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1WoIN1d-QBwRGyT1eqKCcfi-Wp5RauKJS</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>23</v>
       </c>
@@ -5031,28 +4756,25 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="65"/>
-        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img4.JPG</v>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_4.JPG</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" ref="F98:F129" si="97">VLOOKUP(A98,$H$1:$I$31,2,0)</f>
         <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
       </c>
       <c r="G98" t="s">
-        <v>52</v>
-      </c>
-      <c r="J98" t="s">
-        <v>50</v>
-      </c>
-      <c r="K98" t="str">
-        <f t="shared" ref="K98:K129" si="98">VLOOKUP(A98,$L$1:$S$31,5,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" ref="J98" si="98">VLOOKUP(A98,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1rN9sxEBPp0CfbuMRaWt6E-F0giBR-i4J</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>23</v>
       </c>
@@ -5060,28 +4782,25 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="65"/>
-        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/img5.JPG</v>
+        <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào/Img_5.JPG</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="97"/>
         <v>23. Calotes versicolor (Daudin, 1802)-Nhông hàng rào</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
-      </c>
-      <c r="J99" t="s">
-        <v>51</v>
-      </c>
-      <c r="K99" t="str">
-        <f t="shared" ref="K99:K130" si="99">VLOOKUP(A99,$L$1:$S$31,6,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" ref="J99" si="99">VLOOKUP(A99,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1KDR3vJpcME72Xcp49Ro4nShF6ab2OXx_</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>24</v>
       </c>
@@ -5089,28 +4808,25 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="65"/>
-        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img1.JPG</v>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_1.JPG</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="97"/>
         <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G100" t="s">
-        <v>49</v>
-      </c>
-      <c r="J100" t="s">
-        <v>52</v>
-      </c>
-      <c r="K100" t="str">
-        <f t="shared" ref="K100:K131" si="100">VLOOKUP(A100,$L$1:$S$31,7,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" ref="J100" si="100">VLOOKUP(A100,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1wCnCBhkFEw5UWmx0EpHYtdBJOF099m1O</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>24</v>
       </c>
@@ -5118,28 +4834,25 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="65"/>
-        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img2.JPG</v>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_2.JPG</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="97"/>
         <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G101" t="s">
-        <v>50</v>
-      </c>
-      <c r="J101" t="s">
-        <v>53</v>
-      </c>
-      <c r="K101" t="str">
-        <f t="shared" ref="K101:K132" si="101">VLOOKUP(A101,$L$1:$S$31,8,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" ref="J101" si="101">VLOOKUP(A101,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1jmn51f0emnDSXBP63alR1jJAFSM5haI2</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>24</v>
       </c>
@@ -5147,28 +4860,25 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="65"/>
-        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img3.JPG</v>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_3.JPG</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="97"/>
         <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G102" t="s">
-        <v>51</v>
-      </c>
-      <c r="J102" t="s">
-        <v>49</v>
-      </c>
-      <c r="K102" t="str">
-        <f t="shared" ref="K102:K133" si="102">VLOOKUP(A102,$L$1:$S$31,4,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" ref="J102" si="102">VLOOKUP(A102,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1S8ZAHtASf9M_YmaA98dPKDYUPX9Cxu-b</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>24</v>
       </c>
@@ -5176,28 +4886,25 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="65"/>
-        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img4.JPG</v>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_4.JPG</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="97"/>
         <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G103" t="s">
-        <v>52</v>
-      </c>
-      <c r="J103" t="s">
-        <v>50</v>
-      </c>
-      <c r="K103" t="str">
-        <f t="shared" ref="K103:K134" si="103">VLOOKUP(A103,$L$1:$S$31,5,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" ref="J103" si="103">VLOOKUP(A103,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1RjevrTAeVkBig2J0HBOKy8jUe7_a1CLL</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>24</v>
       </c>
@@ -5205,28 +4912,25 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="65"/>
-        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/img5.JPG</v>
+        <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng/Img_5.JPG</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="97"/>
         <v>24. Gehyra multilata (Weigmann,1835)-Thằn lằn 4 móng</v>
       </c>
       <c r="G104" t="s">
-        <v>53</v>
-      </c>
-      <c r="J104" t="s">
-        <v>51</v>
-      </c>
-      <c r="K104" t="str">
-        <f t="shared" ref="K104:K151" si="104">VLOOKUP(A104,$L$1:$S$31,6,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" ref="J104" si="104">VLOOKUP(A104,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1uvU2vxc5PDoYmmWi7ReeTPdIdLVa5XnC</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>25</v>
       </c>
@@ -5234,28 +4938,25 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="65"/>
-        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img1.JPG</v>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_1.JPG</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="97"/>
         <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G105" t="s">
-        <v>49</v>
-      </c>
-      <c r="J105" t="s">
-        <v>52</v>
-      </c>
-      <c r="K105" t="str">
-        <f t="shared" ref="K105:K151" si="105">VLOOKUP(A105,$L$1:$S$31,7,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" ref="J105" si="105">VLOOKUP(A105,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1d1BlyR6zFskZhAml-Gx0phlVSa9EYNzq</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>25</v>
       </c>
@@ -5263,28 +4964,25 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="65"/>
-        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img2.JPG</v>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_2.JPG</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="97"/>
         <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
-      </c>
-      <c r="J106" t="s">
-        <v>53</v>
-      </c>
-      <c r="K106" t="str">
-        <f t="shared" ref="K106:K151" si="106">VLOOKUP(A106,$L$1:$S$31,8,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" ref="J106" si="106">VLOOKUP(A106,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1VNCWT5omdLYrO3vd0kNVjeLtmMGXGl04</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>25</v>
       </c>
@@ -5292,28 +4990,25 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="65"/>
-        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img3.JPG</v>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_3.JPG</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="97"/>
         <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G107" t="s">
-        <v>51</v>
-      </c>
-      <c r="J107" t="s">
-        <v>49</v>
-      </c>
-      <c r="K107" t="str">
-        <f t="shared" ref="K107:K151" si="107">VLOOKUP(A107,$L$1:$S$31,4,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" ref="J107" si="107">VLOOKUP(A107,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1aqu-EoDKwT0L91YjnSPBw6F-l1N9DHn5</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>25</v>
       </c>
@@ -5321,28 +5016,25 @@
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="65"/>
-        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img4.JPG</v>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_4.JPG</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="97"/>
         <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G108" t="s">
-        <v>52</v>
-      </c>
-      <c r="J108" t="s">
-        <v>50</v>
-      </c>
-      <c r="K108" t="str">
-        <f t="shared" ref="K108:K151" si="108">VLOOKUP(A108,$L$1:$S$31,5,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" ref="J108" si="108">VLOOKUP(A108,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1HLtdGR7dsCnWs8IEp6WvCRHmNcl-6yz3</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>25</v>
       </c>
@@ -5350,28 +5042,25 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="65"/>
-        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/img5.JPG</v>
+        <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot/Img_5.JPG</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="97"/>
         <v>25. Hemidactylus garnotii (Conant and Collins, 1991)-Thạch sùng garnot</v>
       </c>
       <c r="G109" t="s">
-        <v>53</v>
-      </c>
-      <c r="J109" t="s">
-        <v>51</v>
-      </c>
-      <c r="K109" t="str">
-        <f t="shared" ref="K109:K151" si="109">VLOOKUP(A109,$L$1:$S$31,6,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" ref="J109" si="109">VLOOKUP(A109,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1MMSYamfD30IZ7nPCJmMNwNETXWPBx14T</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>26</v>
       </c>
@@ -5379,28 +5068,25 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="65"/>
-        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/img1.JPG</v>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/Img_1.JPG</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="97"/>
         <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
       </c>
       <c r="G110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J110" t="s">
-        <v>52</v>
-      </c>
-      <c r="K110">
-        <f t="shared" ref="K110:K151" si="110">VLOOKUP(A110,$L$1:$S$31,7,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ref="J110" si="110">VLOOKUP(A110,$K$1:$R$31,7,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>26</v>
       </c>
@@ -5408,28 +5094,25 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="65"/>
-        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/img2.JPG</v>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/Img_2.JPG</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="97"/>
         <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
       </c>
       <c r="G111" t="s">
-        <v>50</v>
-      </c>
-      <c r="J111" t="s">
-        <v>53</v>
-      </c>
-      <c r="K111">
-        <f t="shared" ref="K111:K151" si="111">VLOOKUP(A111,$L$1:$S$31,8,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J111">
+        <f t="shared" ref="J111" si="111">VLOOKUP(A111,$K$1:$R$31,8,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>26</v>
       </c>
@@ -5437,28 +5120,25 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="65"/>
-        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/img3.JPG</v>
+        <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần/Img_3.JPG</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="97"/>
         <v>26. Hemidactylus frenatus Schlegel in Duméril &amp; Bibron, 1836-Thạch sùng đuôi sần</v>
       </c>
       <c r="G112" t="s">
-        <v>51</v>
-      </c>
-      <c r="J112" t="s">
-        <v>49</v>
-      </c>
-      <c r="K112" t="str">
-        <f t="shared" ref="K112:K151" si="112">VLOOKUP(A112,$L$1:$S$31,4,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" ref="J112" si="112">VLOOKUP(A112,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1PmuUeYwkh7apn2-AoIo74RehQZQF2wpb</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>27</v>
       </c>
@@ -5466,28 +5146,25 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="65"/>
-        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/img1.JPG</v>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/Img_1.JPG</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="97"/>
         <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
       </c>
       <c r="G113" t="s">
-        <v>49</v>
-      </c>
-      <c r="J113" t="s">
-        <v>50</v>
-      </c>
-      <c r="K113" t="str">
-        <f t="shared" ref="K113:K151" si="113">VLOOKUP(A113,$L$1:$S$31,5,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" ref="J113" si="113">VLOOKUP(A113,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1DaePXZTxSIlyaW2K-IOoTqNbpctlzVRa</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>27</v>
       </c>
@@ -5495,28 +5172,25 @@
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="65"/>
-        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/img2.JPG</v>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/Img_2.JPG</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="97"/>
         <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
       </c>
       <c r="G114" t="s">
-        <v>50</v>
-      </c>
-      <c r="J114" t="s">
-        <v>51</v>
-      </c>
-      <c r="K114" t="str">
-        <f t="shared" ref="K114:K151" si="114">VLOOKUP(A114,$L$1:$S$31,6,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" ref="J114" si="114">VLOOKUP(A114,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=15G9c0-fGCYrsj7LokgaCglv4oM24ftrB</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>27</v>
       </c>
@@ -5524,28 +5198,25 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="65"/>
-        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/img3.JPG</v>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/Img_3.JPG</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="97"/>
         <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
       </c>
       <c r="G115" t="s">
-        <v>51</v>
-      </c>
-      <c r="J115" t="s">
-        <v>52</v>
-      </c>
-      <c r="K115" t="str">
-        <f t="shared" ref="K115:K151" si="115">VLOOKUP(A115,$L$1:$S$31,7,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" ref="J115" si="115">VLOOKUP(A115,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=12Vgdh9LAbRXzNfaf9JBcSe_N1f6q5vUf</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>27</v>
       </c>
@@ -5553,28 +5224,25 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="65"/>
-        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/img4.JPG</v>
+        <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp/Img_4.JPG</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="97"/>
         <v>27. Hemidactylus platyurus (Schneider, 1797)-Thạch sùng đuôi dẹp</v>
       </c>
       <c r="G116" t="s">
-        <v>52</v>
-      </c>
-      <c r="J116" t="s">
-        <v>53</v>
-      </c>
-      <c r="K116">
-        <f t="shared" ref="K116:K151" si="116">VLOOKUP(A116,$L$1:$S$31,8,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J116">
+        <f t="shared" ref="J116" si="116">VLOOKUP(A116,$K$1:$R$31,8,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>28</v>
       </c>
@@ -5582,28 +5250,25 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="65"/>
-        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img1.JPG</v>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_1.JPG</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="97"/>
         <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
       </c>
       <c r="G117" t="s">
-        <v>49</v>
-      </c>
-      <c r="J117" t="s">
-        <v>49</v>
-      </c>
-      <c r="K117" t="str">
-        <f t="shared" ref="K117:K151" si="117">VLOOKUP(A117,$L$1:$S$31,4,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" ref="J117" si="117">VLOOKUP(A117,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1XU3dkPM576kAs2TkLOHqocj_4lc0BWGI</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>28</v>
       </c>
@@ -5611,28 +5276,25 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="65"/>
-        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img2.JPG</v>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_2.JPG</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="97"/>
         <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
       </c>
       <c r="G118" t="s">
-        <v>50</v>
-      </c>
-      <c r="J118" t="s">
-        <v>50</v>
-      </c>
-      <c r="K118" t="str">
-        <f t="shared" ref="K118:K151" si="118">VLOOKUP(A118,$L$1:$S$31,5,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" ref="J118" si="118">VLOOKUP(A118,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=15fCO8EhyeHzrxDSjyi2Cpn06J7oBKgY8</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>28</v>
       </c>
@@ -5640,28 +5302,25 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="65"/>
-        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img3.JPG</v>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_3.JPG</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="97"/>
         <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
       </c>
       <c r="G119" t="s">
-        <v>51</v>
-      </c>
-      <c r="J119" t="s">
-        <v>51</v>
-      </c>
-      <c r="K119" t="str">
-        <f t="shared" ref="K119:K151" si="119">VLOOKUP(A119,$L$1:$S$31,6,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" ref="J119" si="119">VLOOKUP(A119,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=19fpuTEUgPjW1Ppam_0w_VvwRWBmR2oc_</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>28</v>
       </c>
@@ -5669,28 +5328,25 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="65"/>
-        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img4.JPG</v>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_4.JPG</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="97"/>
         <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
       </c>
       <c r="G120" t="s">
-        <v>52</v>
-      </c>
-      <c r="J120" t="s">
-        <v>52</v>
-      </c>
-      <c r="K120" t="str">
-        <f t="shared" ref="K120:K151" si="120">VLOOKUP(A120,$L$1:$S$31,7,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" ref="J120" si="120">VLOOKUP(A120,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1PMXbC30SZqptQLuYU4_Q6KD6PV2h5FiJ</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>28</v>
       </c>
@@ -5698,28 +5354,25 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="65"/>
-        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/img5.JPG</v>
+        <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài/Img_5.JPG</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="97"/>
         <v>28. Takydromus sexlineatus Daudin, 1802-Thằn lằn đuôi dài</v>
       </c>
       <c r="G121" t="s">
-        <v>53</v>
-      </c>
-      <c r="J121" t="s">
-        <v>53</v>
-      </c>
-      <c r="K121" t="str">
-        <f t="shared" ref="K121:K151" si="121">VLOOKUP(A121,$L$1:$S$31,8,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" ref="J121" si="121">VLOOKUP(A121,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1tUPqJQbZ9ssxrN3dI_pW5fU8gWx3I5rM</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>29</v>
       </c>
@@ -5727,28 +5380,25 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="65"/>
-        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img1.JPG</v>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_1.JPG</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="97"/>
         <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
       </c>
       <c r="G122" t="s">
-        <v>49</v>
-      </c>
-      <c r="J122" t="s">
-        <v>49</v>
-      </c>
-      <c r="K122" t="str">
-        <f t="shared" ref="K122:K151" si="122">VLOOKUP(A122,$L$1:$S$31,4,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" ref="J122" si="122">VLOOKUP(A122,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1lq79QgaKaanvDmafG4k-gp32yfn09n2D</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>29</v>
       </c>
@@ -5756,28 +5406,25 @@
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="65"/>
-        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img2.JPG</v>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_2.JPG</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="97"/>
         <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
       </c>
       <c r="G123" t="s">
-        <v>50</v>
-      </c>
-      <c r="J123" t="s">
-        <v>50</v>
-      </c>
-      <c r="K123" t="str">
-        <f t="shared" ref="K123:K151" si="123">VLOOKUP(A123,$L$1:$S$31,5,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" ref="J123" si="123">VLOOKUP(A123,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1-sV1gpVyiGPg-Cv475h2z8mrv5feaes-</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>29</v>
       </c>
@@ -5785,28 +5432,25 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="65"/>
-        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img3.JPG</v>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_3.JPG</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="97"/>
         <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
       </c>
       <c r="G124" t="s">
-        <v>51</v>
-      </c>
-      <c r="J124" t="s">
-        <v>51</v>
-      </c>
-      <c r="K124" t="str">
-        <f t="shared" ref="K124:K151" si="124">VLOOKUP(A124,$L$1:$S$31,6,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" ref="J124" si="124">VLOOKUP(A124,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1-63Btp3O2h-GUsmUxSLxlayR0ChaQ4Az</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>29</v>
       </c>
@@ -5814,28 +5458,25 @@
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="65"/>
-        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img4.JPG</v>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_4.JPG</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="97"/>
         <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
       </c>
       <c r="G125" t="s">
-        <v>52</v>
-      </c>
-      <c r="J125" t="s">
-        <v>52</v>
-      </c>
-      <c r="K125" t="str">
-        <f t="shared" ref="K125:K151" si="125">VLOOKUP(A125,$L$1:$S$31,7,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" ref="J125" si="125">VLOOKUP(A125,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1ZG1o4uqJ-lsTFFztDvvMpy2OzAaTKmvU</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>29</v>
       </c>
@@ -5843,28 +5484,25 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="65"/>
-        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/img5.JPG</v>
+        <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa/Img_5.JPG</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="97"/>
         <v>29. Eutropis multifasciata (Kuhl, 1820)-Thằn lằn bóng hoa</v>
       </c>
       <c r="G126" t="s">
-        <v>53</v>
-      </c>
-      <c r="J126" t="s">
-        <v>53</v>
-      </c>
-      <c r="K126" t="str">
-        <f t="shared" ref="K126:K151" si="126">VLOOKUP(A126,$L$1:$S$31,8,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" ref="J126" si="126">VLOOKUP(A126,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1q6pW8AAlbF7i5GJz1pPS56i3ANNjI0WY</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>30</v>
       </c>
@@ -5872,28 +5510,25 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="65"/>
-        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img1.JPG</v>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_1.JPG</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="97"/>
         <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
       </c>
       <c r="G127" t="s">
-        <v>49</v>
-      </c>
-      <c r="J127" t="s">
-        <v>49</v>
-      </c>
-      <c r="K127" t="str">
-        <f t="shared" ref="K127:K151" si="127">VLOOKUP(A127,$L$1:$S$31,4,0)</f>
+        <v>250</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" ref="J127" si="127">VLOOKUP(A127,$K$1:$R$31,4,0)</f>
         <v>https://drive.google.com/open?id=1G0p0-MM3GCk9Vg7-i0IkHNake2C401Eq</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>30</v>
       </c>
@@ -5901,28 +5536,25 @@
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="65"/>
-        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img2.JPG</v>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_2.JPG</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="97"/>
         <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
       </c>
       <c r="G128" t="s">
-        <v>50</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128" t="str">
-        <f t="shared" ref="K128:K151" si="128">VLOOKUP(A128,$L$1:$S$31,5,0)</f>
+        <v>251</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" ref="J128" si="128">VLOOKUP(A128,$K$1:$R$31,5,0)</f>
         <v>https://drive.google.com/open?id=1HCD56PjAHYgBe6pOTSRccEgDaeW7lImk</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>30</v>
       </c>
@@ -5930,28 +5562,25 @@
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="65"/>
-        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img3.JPG</v>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_3.JPG</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="97"/>
         <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
-      </c>
-      <c r="J129" t="s">
-        <v>51</v>
-      </c>
-      <c r="K129" t="str">
-        <f t="shared" ref="K129:K151" si="129">VLOOKUP(A129,$L$1:$S$31,6,0)</f>
+        <v>252</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" ref="J129" si="129">VLOOKUP(A129,$K$1:$R$31,6,0)</f>
         <v>https://drive.google.com/open?id=1lCr_iZtJ-r1-f73GB-oh27uEXgOeetac</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>30</v>
       </c>
@@ -5959,28 +5588,25 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="65"/>
-        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img4.JPG</v>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_4.JPG</v>
       </c>
       <c r="F130" t="str">
         <f>VLOOKUP(A130,$H$1:$I$31,2,0)</f>
         <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
       </c>
       <c r="G130" t="s">
-        <v>52</v>
-      </c>
-      <c r="J130" t="s">
-        <v>52</v>
-      </c>
-      <c r="K130" t="str">
-        <f t="shared" ref="K130:K151" si="130">VLOOKUP(A130,$L$1:$S$31,7,0)</f>
+        <v>253</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" ref="J130" si="130">VLOOKUP(A130,$K$1:$R$31,7,0)</f>
         <v>https://drive.google.com/open?id=1T_rpZc568T10Psg7iFckyMFIF1y48jZ_</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>30</v>
       </c>
@@ -5988,159 +5614,156 @@
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131" si="131">CONCATENATE(F131,G131)</f>
-        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/img5.JPG</v>
+        <f t="shared" ref="C131:E131" si="131">CONCATENATE(F131,G131)</f>
+        <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới/Img_5.JPG</v>
       </c>
       <c r="F131" t="str">
         <f>VLOOKUP(A131,$H$1:$I$31,2,0)</f>
         <v>30. Python molurus (Linnaeus, 1758)-Trăn lưới</v>
       </c>
       <c r="G131" t="s">
-        <v>53</v>
-      </c>
-      <c r="J131" t="s">
-        <v>53</v>
-      </c>
-      <c r="K131" t="str">
-        <f t="shared" ref="K131:K151" si="132">VLOOKUP(A131,$L$1:$S$31,8,0)</f>
+        <v>254</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" ref="J131" si="132">VLOOKUP(A131,$K$1:$R$31,8,0)</f>
         <v>https://drive.google.com/open?id=1f1jIaWVl1DasQdUilcVt2FwmjAmBEKSS</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
-    <hyperlink ref="Q2" r:id="rId3"/>
-    <hyperlink ref="R2" r:id="rId4"/>
-    <hyperlink ref="S2" r:id="rId5"/>
-    <hyperlink ref="O3" r:id="rId6"/>
-    <hyperlink ref="P3" r:id="rId7"/>
-    <hyperlink ref="Q3" r:id="rId8"/>
-    <hyperlink ref="R3" r:id="rId9"/>
-    <hyperlink ref="O4" r:id="rId10"/>
-    <hyperlink ref="P4" r:id="rId11"/>
-    <hyperlink ref="O5" r:id="rId12"/>
-    <hyperlink ref="P5" r:id="rId13"/>
-    <hyperlink ref="Q5" r:id="rId14"/>
-    <hyperlink ref="R5" r:id="rId15"/>
-    <hyperlink ref="S5" r:id="rId16"/>
-    <hyperlink ref="O6" r:id="rId17"/>
-    <hyperlink ref="P6" r:id="rId18"/>
-    <hyperlink ref="Q6" r:id="rId19"/>
-    <hyperlink ref="R6" r:id="rId20"/>
-    <hyperlink ref="S6" r:id="rId21"/>
-    <hyperlink ref="O7" r:id="rId22"/>
-    <hyperlink ref="P7" r:id="rId23"/>
-    <hyperlink ref="Q7" r:id="rId24"/>
-    <hyperlink ref="R7" r:id="rId25"/>
-    <hyperlink ref="S7" r:id="rId26"/>
-    <hyperlink ref="O8" r:id="rId27"/>
-    <hyperlink ref="P8" r:id="rId28"/>
-    <hyperlink ref="Q8" r:id="rId29"/>
-    <hyperlink ref="R8" r:id="rId30"/>
-    <hyperlink ref="S8" r:id="rId31"/>
-    <hyperlink ref="O9" r:id="rId32"/>
-    <hyperlink ref="P9" r:id="rId33"/>
-    <hyperlink ref="Q9" r:id="rId34"/>
-    <hyperlink ref="R9" r:id="rId35"/>
-    <hyperlink ref="S9" r:id="rId36"/>
-    <hyperlink ref="O10" r:id="rId37"/>
-    <hyperlink ref="P10" r:id="rId38"/>
-    <hyperlink ref="Q10" r:id="rId39"/>
-    <hyperlink ref="R10" r:id="rId40"/>
-    <hyperlink ref="S10" r:id="rId41"/>
-    <hyperlink ref="O11" r:id="rId42"/>
-    <hyperlink ref="P11" r:id="rId43"/>
-    <hyperlink ref="Q11" r:id="rId44"/>
-    <hyperlink ref="O12" r:id="rId45"/>
-    <hyperlink ref="P12" r:id="rId46"/>
-    <hyperlink ref="Q12" r:id="rId47"/>
-    <hyperlink ref="R12" r:id="rId48"/>
-    <hyperlink ref="O13" r:id="rId49"/>
-    <hyperlink ref="P13" r:id="rId50"/>
-    <hyperlink ref="Q13" r:id="rId51"/>
-    <hyperlink ref="R13" r:id="rId52"/>
-    <hyperlink ref="S13" r:id="rId53"/>
-    <hyperlink ref="O14" r:id="rId54"/>
-    <hyperlink ref="P14" r:id="rId55"/>
-    <hyperlink ref="Q14" r:id="rId56"/>
-    <hyperlink ref="R14" r:id="rId57"/>
-    <hyperlink ref="S14" r:id="rId58"/>
-    <hyperlink ref="O15" r:id="rId59"/>
-    <hyperlink ref="P15" r:id="rId60"/>
-    <hyperlink ref="Q15" r:id="rId61"/>
-    <hyperlink ref="O16" r:id="rId62"/>
-    <hyperlink ref="P16" r:id="rId63"/>
-    <hyperlink ref="Q16" r:id="rId64"/>
-    <hyperlink ref="R16" r:id="rId65"/>
-    <hyperlink ref="S16" r:id="rId66"/>
-    <hyperlink ref="O17" r:id="rId67"/>
-    <hyperlink ref="P17" r:id="rId68"/>
-    <hyperlink ref="Q17" r:id="rId69"/>
-    <hyperlink ref="R17" r:id="rId70"/>
-    <hyperlink ref="O18" r:id="rId71"/>
-    <hyperlink ref="P18" r:id="rId72"/>
-    <hyperlink ref="Q18" r:id="rId73"/>
-    <hyperlink ref="O19" r:id="rId74"/>
-    <hyperlink ref="P19" r:id="rId75"/>
-    <hyperlink ref="Q19" r:id="rId76"/>
-    <hyperlink ref="O20" r:id="rId77"/>
-    <hyperlink ref="P20" r:id="rId78"/>
-    <hyperlink ref="O21" r:id="rId79"/>
-    <hyperlink ref="P21" r:id="rId80"/>
-    <hyperlink ref="Q21" r:id="rId81"/>
-    <hyperlink ref="R21" r:id="rId82"/>
-    <hyperlink ref="S21" r:id="rId83"/>
-    <hyperlink ref="O22" r:id="rId84"/>
-    <hyperlink ref="P22" r:id="rId85"/>
-    <hyperlink ref="Q22" r:id="rId86"/>
-    <hyperlink ref="R22" r:id="rId87"/>
-    <hyperlink ref="S22" r:id="rId88"/>
-    <hyperlink ref="O23" r:id="rId89"/>
-    <hyperlink ref="P23" r:id="rId90"/>
-    <hyperlink ref="Q23" r:id="rId91"/>
-    <hyperlink ref="R23" r:id="rId92"/>
-    <hyperlink ref="S23" r:id="rId93"/>
-    <hyperlink ref="O24" r:id="rId94"/>
-    <hyperlink ref="P24" r:id="rId95"/>
-    <hyperlink ref="Q24" r:id="rId96"/>
-    <hyperlink ref="R24" r:id="rId97"/>
-    <hyperlink ref="S24" r:id="rId98"/>
-    <hyperlink ref="O25" r:id="rId99"/>
-    <hyperlink ref="P25" r:id="rId100"/>
-    <hyperlink ref="Q25" r:id="rId101"/>
-    <hyperlink ref="R25" r:id="rId102"/>
-    <hyperlink ref="S25" r:id="rId103"/>
-    <hyperlink ref="O26" r:id="rId104"/>
-    <hyperlink ref="P26" r:id="rId105"/>
-    <hyperlink ref="Q26" r:id="rId106"/>
-    <hyperlink ref="R26" r:id="rId107"/>
-    <hyperlink ref="S26" r:id="rId108"/>
-    <hyperlink ref="O27" r:id="rId109"/>
-    <hyperlink ref="P27" r:id="rId110"/>
-    <hyperlink ref="Q27" r:id="rId111"/>
-    <hyperlink ref="O28" r:id="rId112"/>
-    <hyperlink ref="P28" r:id="rId113"/>
-    <hyperlink ref="Q28" r:id="rId114"/>
-    <hyperlink ref="R28" r:id="rId115"/>
-    <hyperlink ref="O29" r:id="rId116"/>
-    <hyperlink ref="P29" r:id="rId117"/>
-    <hyperlink ref="Q29" r:id="rId118"/>
-    <hyperlink ref="R29" r:id="rId119"/>
-    <hyperlink ref="S29" r:id="rId120"/>
-    <hyperlink ref="O30" r:id="rId121"/>
-    <hyperlink ref="P30" r:id="rId122"/>
-    <hyperlink ref="Q30" r:id="rId123"/>
-    <hyperlink ref="R30" r:id="rId124"/>
-    <hyperlink ref="S30" r:id="rId125"/>
-    <hyperlink ref="O31" r:id="rId126"/>
-    <hyperlink ref="P31" r:id="rId127"/>
-    <hyperlink ref="Q31" r:id="rId128"/>
-    <hyperlink ref="R31" r:id="rId129"/>
-    <hyperlink ref="S31" r:id="rId130"/>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="O2" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
+    <hyperlink ref="R2" r:id="rId5"/>
+    <hyperlink ref="N3" r:id="rId6"/>
+    <hyperlink ref="O3" r:id="rId7"/>
+    <hyperlink ref="P3" r:id="rId8"/>
+    <hyperlink ref="Q3" r:id="rId9"/>
+    <hyperlink ref="N4" r:id="rId10"/>
+    <hyperlink ref="O4" r:id="rId11"/>
+    <hyperlink ref="N5" r:id="rId12"/>
+    <hyperlink ref="O5" r:id="rId13"/>
+    <hyperlink ref="P5" r:id="rId14"/>
+    <hyperlink ref="Q5" r:id="rId15"/>
+    <hyperlink ref="R5" r:id="rId16"/>
+    <hyperlink ref="N6" r:id="rId17"/>
+    <hyperlink ref="O6" r:id="rId18"/>
+    <hyperlink ref="P6" r:id="rId19"/>
+    <hyperlink ref="Q6" r:id="rId20"/>
+    <hyperlink ref="R6" r:id="rId21"/>
+    <hyperlink ref="N7" r:id="rId22"/>
+    <hyperlink ref="O7" r:id="rId23"/>
+    <hyperlink ref="P7" r:id="rId24"/>
+    <hyperlink ref="Q7" r:id="rId25"/>
+    <hyperlink ref="R7" r:id="rId26"/>
+    <hyperlink ref="N8" r:id="rId27"/>
+    <hyperlink ref="O8" r:id="rId28"/>
+    <hyperlink ref="P8" r:id="rId29"/>
+    <hyperlink ref="Q8" r:id="rId30"/>
+    <hyperlink ref="R8" r:id="rId31"/>
+    <hyperlink ref="N9" r:id="rId32"/>
+    <hyperlink ref="O9" r:id="rId33"/>
+    <hyperlink ref="P9" r:id="rId34"/>
+    <hyperlink ref="Q9" r:id="rId35"/>
+    <hyperlink ref="R9" r:id="rId36"/>
+    <hyperlink ref="N10" r:id="rId37"/>
+    <hyperlink ref="O10" r:id="rId38"/>
+    <hyperlink ref="P10" r:id="rId39"/>
+    <hyperlink ref="Q10" r:id="rId40"/>
+    <hyperlink ref="R10" r:id="rId41"/>
+    <hyperlink ref="N11" r:id="rId42"/>
+    <hyperlink ref="O11" r:id="rId43"/>
+    <hyperlink ref="P11" r:id="rId44"/>
+    <hyperlink ref="N12" r:id="rId45"/>
+    <hyperlink ref="O12" r:id="rId46"/>
+    <hyperlink ref="P12" r:id="rId47"/>
+    <hyperlink ref="Q12" r:id="rId48"/>
+    <hyperlink ref="N13" r:id="rId49"/>
+    <hyperlink ref="O13" r:id="rId50"/>
+    <hyperlink ref="P13" r:id="rId51"/>
+    <hyperlink ref="Q13" r:id="rId52"/>
+    <hyperlink ref="R13" r:id="rId53"/>
+    <hyperlink ref="N14" r:id="rId54"/>
+    <hyperlink ref="O14" r:id="rId55"/>
+    <hyperlink ref="P14" r:id="rId56"/>
+    <hyperlink ref="Q14" r:id="rId57"/>
+    <hyperlink ref="R14" r:id="rId58"/>
+    <hyperlink ref="N15" r:id="rId59"/>
+    <hyperlink ref="O15" r:id="rId60"/>
+    <hyperlink ref="P15" r:id="rId61"/>
+    <hyperlink ref="N16" r:id="rId62"/>
+    <hyperlink ref="O16" r:id="rId63"/>
+    <hyperlink ref="P16" r:id="rId64"/>
+    <hyperlink ref="Q16" r:id="rId65"/>
+    <hyperlink ref="R16" r:id="rId66"/>
+    <hyperlink ref="N17" r:id="rId67"/>
+    <hyperlink ref="O17" r:id="rId68"/>
+    <hyperlink ref="P17" r:id="rId69"/>
+    <hyperlink ref="Q17" r:id="rId70"/>
+    <hyperlink ref="N18" r:id="rId71"/>
+    <hyperlink ref="O18" r:id="rId72"/>
+    <hyperlink ref="P18" r:id="rId73"/>
+    <hyperlink ref="N19" r:id="rId74"/>
+    <hyperlink ref="O19" r:id="rId75"/>
+    <hyperlink ref="P19" r:id="rId76"/>
+    <hyperlink ref="N20" r:id="rId77"/>
+    <hyperlink ref="O20" r:id="rId78"/>
+    <hyperlink ref="N21" r:id="rId79"/>
+    <hyperlink ref="O21" r:id="rId80"/>
+    <hyperlink ref="P21" r:id="rId81"/>
+    <hyperlink ref="Q21" r:id="rId82"/>
+    <hyperlink ref="R21" r:id="rId83"/>
+    <hyperlink ref="N22" r:id="rId84"/>
+    <hyperlink ref="O22" r:id="rId85"/>
+    <hyperlink ref="P22" r:id="rId86"/>
+    <hyperlink ref="Q22" r:id="rId87"/>
+    <hyperlink ref="R22" r:id="rId88"/>
+    <hyperlink ref="N23" r:id="rId89"/>
+    <hyperlink ref="O23" r:id="rId90"/>
+    <hyperlink ref="P23" r:id="rId91"/>
+    <hyperlink ref="Q23" r:id="rId92"/>
+    <hyperlink ref="R23" r:id="rId93"/>
+    <hyperlink ref="N24" r:id="rId94"/>
+    <hyperlink ref="O24" r:id="rId95"/>
+    <hyperlink ref="P24" r:id="rId96"/>
+    <hyperlink ref="Q24" r:id="rId97"/>
+    <hyperlink ref="R24" r:id="rId98"/>
+    <hyperlink ref="N25" r:id="rId99"/>
+    <hyperlink ref="O25" r:id="rId100"/>
+    <hyperlink ref="P25" r:id="rId101"/>
+    <hyperlink ref="Q25" r:id="rId102"/>
+    <hyperlink ref="R25" r:id="rId103"/>
+    <hyperlink ref="N26" r:id="rId104"/>
+    <hyperlink ref="O26" r:id="rId105"/>
+    <hyperlink ref="P26" r:id="rId106"/>
+    <hyperlink ref="Q26" r:id="rId107"/>
+    <hyperlink ref="R26" r:id="rId108"/>
+    <hyperlink ref="N27" r:id="rId109"/>
+    <hyperlink ref="O27" r:id="rId110"/>
+    <hyperlink ref="P27" r:id="rId111"/>
+    <hyperlink ref="N28" r:id="rId112"/>
+    <hyperlink ref="O28" r:id="rId113"/>
+    <hyperlink ref="P28" r:id="rId114"/>
+    <hyperlink ref="Q28" r:id="rId115"/>
+    <hyperlink ref="N29" r:id="rId116"/>
+    <hyperlink ref="O29" r:id="rId117"/>
+    <hyperlink ref="P29" r:id="rId118"/>
+    <hyperlink ref="Q29" r:id="rId119"/>
+    <hyperlink ref="R29" r:id="rId120"/>
+    <hyperlink ref="N30" r:id="rId121"/>
+    <hyperlink ref="O30" r:id="rId122"/>
+    <hyperlink ref="P30" r:id="rId123"/>
+    <hyperlink ref="Q30" r:id="rId124"/>
+    <hyperlink ref="R30" r:id="rId125"/>
+    <hyperlink ref="N31" r:id="rId126"/>
+    <hyperlink ref="O31" r:id="rId127"/>
+    <hyperlink ref="P31" r:id="rId128"/>
+    <hyperlink ref="Q31" r:id="rId129"/>
+    <hyperlink ref="R31" r:id="rId130"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId131"/>
